--- a/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.21805555738359</v>
+        <v>26.2180555573837</v>
       </c>
       <c r="C2">
-        <v>25.62805424264369</v>
+        <v>25.62805424264372</v>
       </c>
       <c r="D2">
-        <v>7.402162108900451</v>
+        <v>7.402162108900398</v>
       </c>
       <c r="E2">
-        <v>30.66230336343275</v>
+        <v>30.66230336343273</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.19903777379316</v>
+        <v>36.19903777379317</v>
       </c>
       <c r="H2">
-        <v>27.82747336256373</v>
+        <v>27.82747336256375</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.28219735223474</v>
+        <v>24.28219735223502</v>
       </c>
       <c r="C3">
-        <v>23.68454624232185</v>
+        <v>23.68454624232194</v>
       </c>
       <c r="D3">
-        <v>6.848903590543055</v>
+        <v>6.84890359054313</v>
       </c>
       <c r="E3">
-        <v>28.24877045567983</v>
+        <v>28.24877045567989</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.95374308124723</v>
+        <v>33.95374308124731</v>
       </c>
       <c r="H3">
-        <v>26.37336355734296</v>
+        <v>26.37336355734294</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.04343038737484</v>
+        <v>23.0434303873746</v>
       </c>
       <c r="C4">
-        <v>22.44538343136647</v>
+        <v>22.44538343136653</v>
       </c>
       <c r="D4">
-        <v>6.49540700428867</v>
+        <v>6.495407004288685</v>
       </c>
       <c r="E4">
-        <v>26.72163556577082</v>
+        <v>26.72163556577077</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.56640657134847</v>
+        <v>32.56640657134842</v>
       </c>
       <c r="H4">
-        <v>25.48949336913667</v>
+        <v>25.48949336913673</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.52545302025202</v>
+        <v>22.52545302025217</v>
       </c>
       <c r="C5">
-        <v>21.92824031908751</v>
+        <v>21.92824031908748</v>
       </c>
       <c r="D5">
-        <v>6.34772502720255</v>
+        <v>6.347725027202558</v>
       </c>
       <c r="E5">
-        <v>26.08683845604251</v>
+        <v>26.08683845604247</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.99866442786415</v>
+        <v>31.9986644278643</v>
       </c>
       <c r="H5">
-        <v>25.13138415472105</v>
+        <v>25.13138415472116</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.43863275088584</v>
+        <v>22.43863275088577</v>
       </c>
       <c r="C6">
-        <v>21.84161647960841</v>
+        <v>21.84161647960835</v>
       </c>
       <c r="D6">
-        <v>6.322979014000286</v>
+        <v>6.32297901400027</v>
       </c>
       <c r="E6">
-        <v>25.98064790532834</v>
+        <v>25.98064790532818</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.90424537799764</v>
+        <v>31.90424537799752</v>
       </c>
       <c r="H6">
-        <v>25.07204302606465</v>
+        <v>25.07204302606456</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.03649877905791</v>
+        <v>23.03649877905795</v>
       </c>
       <c r="C7">
-        <v>22.43845914565349</v>
+        <v>22.43845914565345</v>
       </c>
       <c r="D7">
-        <v>6.493430206721171</v>
+        <v>6.493430206721194</v>
       </c>
       <c r="E7">
-        <v>26.71312633801644</v>
+        <v>26.71312633801651</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.55875958194487</v>
+        <v>32.55875958194493</v>
       </c>
       <c r="H7">
-        <v>25.48465551988928</v>
+        <v>25.48465551988929</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.56061730414538</v>
+        <v>25.56061730414536</v>
       </c>
       <c r="C8">
-        <v>24.96702874167587</v>
+        <v>24.96702874167598</v>
       </c>
       <c r="D8">
-        <v>7.214158125019045</v>
+        <v>7.214158125019006</v>
       </c>
       <c r="E8">
-        <v>29.83878086217685</v>
+        <v>29.83878086217683</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.42647468780082</v>
+        <v>35.42647468780068</v>
       </c>
       <c r="H8">
-        <v>27.3240851116643</v>
+        <v>27.32408511166417</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.1425498453866</v>
+        <v>30.14254984538678</v>
       </c>
       <c r="C9">
-        <v>29.59671828967613</v>
+        <v>29.59671828967653</v>
       </c>
       <c r="D9">
-        <v>8.526604507180256</v>
+        <v>8.526604507180298</v>
       </c>
       <c r="E9">
-        <v>35.67031997196749</v>
+        <v>35.67031997196769</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.06730389396466</v>
+        <v>41.06730389396533</v>
       </c>
       <c r="H9">
-        <v>31.01919138653397</v>
+        <v>31.01919138653435</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.33653391929207</v>
+        <v>33.33653391929213</v>
       </c>
       <c r="C10">
-        <v>32.85860712466985</v>
+        <v>32.85860712466989</v>
       </c>
       <c r="D10">
-        <v>9.444018708684569</v>
+        <v>9.444018708684739</v>
       </c>
       <c r="E10">
-        <v>39.88226193654347</v>
+        <v>39.88226193654356</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>45.59242553704815</v>
+        <v>45.59242553704819</v>
       </c>
       <c r="H10">
-        <v>33.86876926154859</v>
+        <v>33.86876926154865</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.7679025557664</v>
+        <v>34.76790255576638</v>
       </c>
       <c r="C11">
-        <v>34.3309309401967</v>
+        <v>34.33093094019647</v>
       </c>
       <c r="D11">
-        <v>9.855609548717387</v>
+        <v>9.855609548717405</v>
       </c>
       <c r="E11">
-        <v>41.81734505968736</v>
+        <v>41.81734505968706</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>47.66182529286648</v>
+        <v>47.66182529286628</v>
       </c>
       <c r="H11">
-        <v>35.38580109929541</v>
+        <v>35.38580109929526</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.30861903208836</v>
+        <v>35.30861903208834</v>
       </c>
       <c r="C12">
-        <v>34.88895529321498</v>
+        <v>34.8889552932151</v>
       </c>
       <c r="D12">
         <v>10.01113927013345</v>
       </c>
       <c r="E12">
-        <v>42.55696453906526</v>
+        <v>42.55696453906521</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>48.45007975172717</v>
+        <v>48.45007975172719</v>
       </c>
       <c r="H12">
-        <v>35.96478935991276</v>
+        <v>35.96478935991277</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.19218990380508</v>
+        <v>35.1921899038051</v>
       </c>
       <c r="C13">
-        <v>34.76871167649702</v>
+        <v>34.76871167649725</v>
       </c>
       <c r="D13">
-        <v>9.977648401721515</v>
+        <v>9.977648401721622</v>
       </c>
       <c r="E13">
-        <v>42.3972891945668</v>
+        <v>42.39728919456687</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>48.28004988344214</v>
+        <v>48.28004988344235</v>
       </c>
       <c r="H13">
-        <v>35.83984825577026</v>
+        <v>35.83984825577045</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.81240169438395</v>
+        <v>34.81240169438423</v>
       </c>
       <c r="C14">
-        <v>34.37681550761855</v>
+        <v>34.37681550761864</v>
       </c>
       <c r="D14">
-        <v>9.868408345055895</v>
+        <v>9.868408345055926</v>
       </c>
       <c r="E14">
-        <v>41.87802830260524</v>
+        <v>41.87802830260547</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>47.72656176179741</v>
+        <v>47.72656176179763</v>
       </c>
       <c r="H14">
-        <v>35.43332844719596</v>
+        <v>35.43332844719615</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.57966202014362</v>
+        <v>34.57966202014342</v>
       </c>
       <c r="C15">
-        <v>34.13690611150935</v>
+        <v>34.13690611150925</v>
       </c>
       <c r="D15">
-        <v>9.801469726893739</v>
+        <v>9.801469726893687</v>
       </c>
       <c r="E15">
-        <v>41.56100280292178</v>
+        <v>41.56100280292168</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>47.38824355174976</v>
+        <v>47.38824355174951</v>
       </c>
       <c r="H15">
-        <v>35.18499243574671</v>
+        <v>35.18499243574654</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.24269780419494</v>
+        <v>33.24269780419493</v>
       </c>
       <c r="C16">
-        <v>32.76232453270062</v>
+        <v>32.76232453270055</v>
       </c>
       <c r="D16">
-        <v>9.41704391510258</v>
+        <v>9.417043915102624</v>
       </c>
       <c r="E16">
-        <v>39.75650450293226</v>
+        <v>39.75650450293227</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>45.45764346608537</v>
+        <v>45.45764346608541</v>
       </c>
       <c r="H16">
-        <v>33.77012047117073</v>
+        <v>33.77012047117078</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.41810529217229</v>
+        <v>32.41810529217226</v>
       </c>
       <c r="C17">
-        <v>31.91744923199519</v>
+        <v>31.91744923199553</v>
       </c>
       <c r="D17">
-        <v>9.180050911863367</v>
+        <v>9.180050911863288</v>
       </c>
       <c r="E17">
-        <v>38.65691311189104</v>
+        <v>38.6569131118911</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.2779520863249</v>
+        <v>44.27795208632516</v>
       </c>
       <c r="H17">
-        <v>33.00280208137652</v>
+        <v>33.00280208137671</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.94165731384648</v>
+        <v>31.94165731384669</v>
       </c>
       <c r="C18">
-        <v>31.43025605998523</v>
+        <v>31.4302560599853</v>
       </c>
       <c r="D18">
-        <v>9.043161747794331</v>
+        <v>9.043161747794361</v>
       </c>
       <c r="E18">
-        <v>38.02594280374395</v>
+        <v>38.02594280374409</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.60022059821713</v>
+        <v>43.60022059821743</v>
       </c>
       <c r="H18">
-        <v>32.57999852024668</v>
+        <v>32.57999852024685</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.77992192439907</v>
+        <v>31.77992192439905</v>
       </c>
       <c r="C19">
-        <v>31.26503175458389</v>
+        <v>31.26503175458374</v>
       </c>
       <c r="D19">
-        <v>8.996701370912859</v>
+        <v>8.996701370912868</v>
       </c>
       <c r="E19">
-        <v>37.81245752964292</v>
+        <v>37.81245752964297</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>43.37081135400032</v>
+        <v>43.37081135400022</v>
       </c>
       <c r="H19">
-        <v>32.43735642086305</v>
+        <v>32.43735642086298</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.50609719292875</v>
+        <v>32.50609719292882</v>
       </c>
       <c r="C20">
-        <v>32.00750276735631</v>
+        <v>32.00750276735636</v>
       </c>
       <c r="D20">
-        <v>9.205335789559244</v>
+        <v>9.205335789559259</v>
       </c>
       <c r="E20">
-        <v>38.77378712555321</v>
+        <v>38.77378712555319</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44.40343086519518</v>
+        <v>44.40343086519522</v>
       </c>
       <c r="H20">
-        <v>33.0813081260326</v>
+        <v>33.08130812603262</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.92397328887471</v>
+        <v>34.92397328887468</v>
       </c>
       <c r="C21">
         <v>34.49189127446159</v>
       </c>
       <c r="D21">
-        <v>9.900499102928508</v>
+        <v>9.900499102928586</v>
       </c>
       <c r="E21">
-        <v>42.03032235629608</v>
+        <v>42.03032235629607</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.88897987261333</v>
+        <v>47.88897987261325</v>
       </c>
       <c r="H21">
-        <v>35.55258853835024</v>
+        <v>35.55258853835016</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.49782484140106</v>
+        <v>36.49782484140092</v>
       </c>
       <c r="C22">
-        <v>36.11996026581073</v>
+        <v>36.11996026581048</v>
       </c>
       <c r="D22">
-        <v>10.35324803620371</v>
+        <v>10.35324803620358</v>
       </c>
       <c r="E22">
-        <v>44.20160455032656</v>
+        <v>44.20160455032633</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>50.19615088239021</v>
+        <v>50.19615088238982</v>
       </c>
       <c r="H22">
-        <v>37.24939343195823</v>
+        <v>37.24939343195792</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.65766597277278</v>
+        <v>35.6576659727729</v>
       </c>
       <c r="C23">
-        <v>35.24973055589532</v>
+        <v>35.2497305558956</v>
       </c>
       <c r="D23">
-        <v>10.11154712107014</v>
+        <v>10.11154712107017</v>
       </c>
       <c r="E23">
-        <v>43.03706548049239</v>
+        <v>43.03706548049249</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.96080234141516</v>
+        <v>48.96080234141537</v>
       </c>
       <c r="H23">
-        <v>36.34024273806759</v>
+        <v>36.34024273806772</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.46632359137046</v>
+        <v>32.46632359137042</v>
       </c>
       <c r="C24">
-        <v>31.96679427353553</v>
+        <v>31.96679427353555</v>
       </c>
       <c r="D24">
-        <v>9.193906521163637</v>
+        <v>9.193906521163623</v>
       </c>
       <c r="E24">
-        <v>38.72094493759149</v>
+        <v>38.72094493759145</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44.34670060224634</v>
+        <v>44.34670060224648</v>
       </c>
       <c r="H24">
-        <v>33.04580609500902</v>
+        <v>33.04580609500913</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.93768988938555</v>
+        <v>28.93768988938571</v>
       </c>
       <c r="C25">
-        <v>28.37396843425194</v>
+        <v>28.373968434252</v>
       </c>
       <c r="D25">
-        <v>8.181017967736484</v>
+        <v>8.181017967736469</v>
       </c>
       <c r="E25">
-        <v>34.11491911261258</v>
+        <v>34.11491911261275</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.49556844024101</v>
+        <v>39.49556844024115</v>
       </c>
       <c r="H25">
-        <v>30.00693989020893</v>
+        <v>30.00693989020898</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.2180555573837</v>
+        <v>26.21805555738359</v>
       </c>
       <c r="C2">
-        <v>25.62805424264372</v>
+        <v>25.62805424264369</v>
       </c>
       <c r="D2">
-        <v>7.402162108900398</v>
+        <v>7.402162108900451</v>
       </c>
       <c r="E2">
-        <v>30.66230336343273</v>
+        <v>30.66230336343275</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.19903777379317</v>
+        <v>36.19903777379316</v>
       </c>
       <c r="H2">
-        <v>27.82747336256375</v>
+        <v>27.82747336256373</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.28219735223502</v>
+        <v>24.28219735223474</v>
       </c>
       <c r="C3">
-        <v>23.68454624232194</v>
+        <v>23.68454624232185</v>
       </c>
       <c r="D3">
-        <v>6.84890359054313</v>
+        <v>6.848903590543055</v>
       </c>
       <c r="E3">
-        <v>28.24877045567989</v>
+        <v>28.24877045567983</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.95374308124731</v>
+        <v>33.95374308124723</v>
       </c>
       <c r="H3">
-        <v>26.37336355734294</v>
+        <v>26.37336355734296</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.0434303873746</v>
+        <v>23.04343038737484</v>
       </c>
       <c r="C4">
-        <v>22.44538343136653</v>
+        <v>22.44538343136647</v>
       </c>
       <c r="D4">
-        <v>6.495407004288685</v>
+        <v>6.49540700428867</v>
       </c>
       <c r="E4">
-        <v>26.72163556577077</v>
+        <v>26.72163556577082</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.56640657134842</v>
+        <v>32.56640657134847</v>
       </c>
       <c r="H4">
-        <v>25.48949336913673</v>
+        <v>25.48949336913667</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.52545302025217</v>
+        <v>22.52545302025202</v>
       </c>
       <c r="C5">
-        <v>21.92824031908748</v>
+        <v>21.92824031908751</v>
       </c>
       <c r="D5">
-        <v>6.347725027202558</v>
+        <v>6.34772502720255</v>
       </c>
       <c r="E5">
-        <v>26.08683845604247</v>
+        <v>26.08683845604251</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.9986644278643</v>
+        <v>31.99866442786415</v>
       </c>
       <c r="H5">
-        <v>25.13138415472116</v>
+        <v>25.13138415472105</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.43863275088577</v>
+        <v>22.43863275088584</v>
       </c>
       <c r="C6">
-        <v>21.84161647960835</v>
+        <v>21.84161647960841</v>
       </c>
       <c r="D6">
-        <v>6.32297901400027</v>
+        <v>6.322979014000286</v>
       </c>
       <c r="E6">
-        <v>25.98064790532818</v>
+        <v>25.98064790532834</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.90424537799752</v>
+        <v>31.90424537799764</v>
       </c>
       <c r="H6">
-        <v>25.07204302606456</v>
+        <v>25.07204302606465</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.03649877905795</v>
+        <v>23.03649877905791</v>
       </c>
       <c r="C7">
-        <v>22.43845914565345</v>
+        <v>22.43845914565349</v>
       </c>
       <c r="D7">
-        <v>6.493430206721194</v>
+        <v>6.493430206721171</v>
       </c>
       <c r="E7">
-        <v>26.71312633801651</v>
+        <v>26.71312633801644</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.55875958194493</v>
+        <v>32.55875958194487</v>
       </c>
       <c r="H7">
-        <v>25.48465551988929</v>
+        <v>25.48465551988928</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.56061730414536</v>
+        <v>25.56061730414538</v>
       </c>
       <c r="C8">
-        <v>24.96702874167598</v>
+        <v>24.96702874167587</v>
       </c>
       <c r="D8">
-        <v>7.214158125019006</v>
+        <v>7.214158125019045</v>
       </c>
       <c r="E8">
-        <v>29.83878086217683</v>
+        <v>29.83878086217685</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.42647468780068</v>
+        <v>35.42647468780082</v>
       </c>
       <c r="H8">
-        <v>27.32408511166417</v>
+        <v>27.3240851116643</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.14254984538678</v>
+        <v>30.1425498453866</v>
       </c>
       <c r="C9">
-        <v>29.59671828967653</v>
+        <v>29.59671828967613</v>
       </c>
       <c r="D9">
-        <v>8.526604507180298</v>
+        <v>8.526604507180256</v>
       </c>
       <c r="E9">
-        <v>35.67031997196769</v>
+        <v>35.67031997196749</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.06730389396533</v>
+        <v>41.06730389396466</v>
       </c>
       <c r="H9">
-        <v>31.01919138653435</v>
+        <v>31.01919138653397</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.33653391929213</v>
+        <v>33.33653391929207</v>
       </c>
       <c r="C10">
-        <v>32.85860712466989</v>
+        <v>32.85860712466985</v>
       </c>
       <c r="D10">
-        <v>9.444018708684739</v>
+        <v>9.444018708684569</v>
       </c>
       <c r="E10">
-        <v>39.88226193654356</v>
+        <v>39.88226193654347</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>45.59242553704819</v>
+        <v>45.59242553704815</v>
       </c>
       <c r="H10">
-        <v>33.86876926154865</v>
+        <v>33.86876926154859</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.76790255576638</v>
+        <v>34.7679025557664</v>
       </c>
       <c r="C11">
-        <v>34.33093094019647</v>
+        <v>34.3309309401967</v>
       </c>
       <c r="D11">
-        <v>9.855609548717405</v>
+        <v>9.855609548717387</v>
       </c>
       <c r="E11">
-        <v>41.81734505968706</v>
+        <v>41.81734505968736</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>47.66182529286628</v>
+        <v>47.66182529286648</v>
       </c>
       <c r="H11">
-        <v>35.38580109929526</v>
+        <v>35.38580109929541</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.30861903208834</v>
+        <v>35.30861903208836</v>
       </c>
       <c r="C12">
-        <v>34.8889552932151</v>
+        <v>34.88895529321498</v>
       </c>
       <c r="D12">
         <v>10.01113927013345</v>
       </c>
       <c r="E12">
-        <v>42.55696453906521</v>
+        <v>42.55696453906526</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>48.45007975172719</v>
+        <v>48.45007975172717</v>
       </c>
       <c r="H12">
-        <v>35.96478935991277</v>
+        <v>35.96478935991276</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.1921899038051</v>
+        <v>35.19218990380508</v>
       </c>
       <c r="C13">
-        <v>34.76871167649725</v>
+        <v>34.76871167649702</v>
       </c>
       <c r="D13">
-        <v>9.977648401721622</v>
+        <v>9.977648401721515</v>
       </c>
       <c r="E13">
-        <v>42.39728919456687</v>
+        <v>42.3972891945668</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>48.28004988344235</v>
+        <v>48.28004988344214</v>
       </c>
       <c r="H13">
-        <v>35.83984825577045</v>
+        <v>35.83984825577026</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.81240169438423</v>
+        <v>34.81240169438395</v>
       </c>
       <c r="C14">
-        <v>34.37681550761864</v>
+        <v>34.37681550761855</v>
       </c>
       <c r="D14">
-        <v>9.868408345055926</v>
+        <v>9.868408345055895</v>
       </c>
       <c r="E14">
-        <v>41.87802830260547</v>
+        <v>41.87802830260524</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>47.72656176179763</v>
+        <v>47.72656176179741</v>
       </c>
       <c r="H14">
-        <v>35.43332844719615</v>
+        <v>35.43332844719596</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.57966202014342</v>
+        <v>34.57966202014362</v>
       </c>
       <c r="C15">
-        <v>34.13690611150925</v>
+        <v>34.13690611150935</v>
       </c>
       <c r="D15">
-        <v>9.801469726893687</v>
+        <v>9.801469726893739</v>
       </c>
       <c r="E15">
-        <v>41.56100280292168</v>
+        <v>41.56100280292178</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>47.38824355174951</v>
+        <v>47.38824355174976</v>
       </c>
       <c r="H15">
-        <v>35.18499243574654</v>
+        <v>35.18499243574671</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.24269780419493</v>
+        <v>33.24269780419494</v>
       </c>
       <c r="C16">
-        <v>32.76232453270055</v>
+        <v>32.76232453270062</v>
       </c>
       <c r="D16">
-        <v>9.417043915102624</v>
+        <v>9.41704391510258</v>
       </c>
       <c r="E16">
-        <v>39.75650450293227</v>
+        <v>39.75650450293226</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>45.45764346608541</v>
+        <v>45.45764346608537</v>
       </c>
       <c r="H16">
-        <v>33.77012047117078</v>
+        <v>33.77012047117073</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.41810529217226</v>
+        <v>32.41810529217229</v>
       </c>
       <c r="C17">
-        <v>31.91744923199553</v>
+        <v>31.91744923199519</v>
       </c>
       <c r="D17">
-        <v>9.180050911863288</v>
+        <v>9.180050911863367</v>
       </c>
       <c r="E17">
-        <v>38.6569131118911</v>
+        <v>38.65691311189104</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.27795208632516</v>
+        <v>44.2779520863249</v>
       </c>
       <c r="H17">
-        <v>33.00280208137671</v>
+        <v>33.00280208137652</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.94165731384669</v>
+        <v>31.94165731384648</v>
       </c>
       <c r="C18">
-        <v>31.4302560599853</v>
+        <v>31.43025605998523</v>
       </c>
       <c r="D18">
-        <v>9.043161747794361</v>
+        <v>9.043161747794331</v>
       </c>
       <c r="E18">
-        <v>38.02594280374409</v>
+        <v>38.02594280374395</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.60022059821743</v>
+        <v>43.60022059821713</v>
       </c>
       <c r="H18">
-        <v>32.57999852024685</v>
+        <v>32.57999852024668</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.77992192439905</v>
+        <v>31.77992192439907</v>
       </c>
       <c r="C19">
-        <v>31.26503175458374</v>
+        <v>31.26503175458389</v>
       </c>
       <c r="D19">
-        <v>8.996701370912868</v>
+        <v>8.996701370912859</v>
       </c>
       <c r="E19">
-        <v>37.81245752964297</v>
+        <v>37.81245752964292</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>43.37081135400022</v>
+        <v>43.37081135400032</v>
       </c>
       <c r="H19">
-        <v>32.43735642086298</v>
+        <v>32.43735642086305</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.50609719292882</v>
+        <v>32.50609719292875</v>
       </c>
       <c r="C20">
-        <v>32.00750276735636</v>
+        <v>32.00750276735631</v>
       </c>
       <c r="D20">
-        <v>9.205335789559259</v>
+        <v>9.205335789559244</v>
       </c>
       <c r="E20">
-        <v>38.77378712555319</v>
+        <v>38.77378712555321</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44.40343086519522</v>
+        <v>44.40343086519518</v>
       </c>
       <c r="H20">
-        <v>33.08130812603262</v>
+        <v>33.0813081260326</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.92397328887468</v>
+        <v>34.92397328887471</v>
       </c>
       <c r="C21">
         <v>34.49189127446159</v>
       </c>
       <c r="D21">
-        <v>9.900499102928586</v>
+        <v>9.900499102928508</v>
       </c>
       <c r="E21">
-        <v>42.03032235629607</v>
+        <v>42.03032235629608</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.88897987261325</v>
+        <v>47.88897987261333</v>
       </c>
       <c r="H21">
-        <v>35.55258853835016</v>
+        <v>35.55258853835024</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.49782484140092</v>
+        <v>36.49782484140106</v>
       </c>
       <c r="C22">
-        <v>36.11996026581048</v>
+        <v>36.11996026581073</v>
       </c>
       <c r="D22">
-        <v>10.35324803620358</v>
+        <v>10.35324803620371</v>
       </c>
       <c r="E22">
-        <v>44.20160455032633</v>
+        <v>44.20160455032656</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>50.19615088238982</v>
+        <v>50.19615088239021</v>
       </c>
       <c r="H22">
-        <v>37.24939343195792</v>
+        <v>37.24939343195823</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.6576659727729</v>
+        <v>35.65766597277278</v>
       </c>
       <c r="C23">
-        <v>35.2497305558956</v>
+        <v>35.24973055589532</v>
       </c>
       <c r="D23">
-        <v>10.11154712107017</v>
+        <v>10.11154712107014</v>
       </c>
       <c r="E23">
-        <v>43.03706548049249</v>
+        <v>43.03706548049239</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.96080234141537</v>
+        <v>48.96080234141516</v>
       </c>
       <c r="H23">
-        <v>36.34024273806772</v>
+        <v>36.34024273806759</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.46632359137042</v>
+        <v>32.46632359137046</v>
       </c>
       <c r="C24">
-        <v>31.96679427353555</v>
+        <v>31.96679427353553</v>
       </c>
       <c r="D24">
-        <v>9.193906521163623</v>
+        <v>9.193906521163637</v>
       </c>
       <c r="E24">
-        <v>38.72094493759145</v>
+        <v>38.72094493759149</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44.34670060224648</v>
+        <v>44.34670060224634</v>
       </c>
       <c r="H24">
-        <v>33.04580609500913</v>
+        <v>33.04580609500902</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.93768988938571</v>
+        <v>28.93768988938555</v>
       </c>
       <c r="C25">
-        <v>28.373968434252</v>
+        <v>28.37396843425194</v>
       </c>
       <c r="D25">
-        <v>8.181017967736469</v>
+        <v>8.181017967736484</v>
       </c>
       <c r="E25">
-        <v>34.11491911261275</v>
+        <v>34.11491911261258</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.49556844024115</v>
+        <v>39.49556844024101</v>
       </c>
       <c r="H25">
-        <v>30.00693989020898</v>
+        <v>30.00693989020893</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.21805555738359</v>
+        <v>26.21542849062497</v>
       </c>
       <c r="C2">
-        <v>25.62805424264369</v>
+        <v>25.61590672377572</v>
       </c>
       <c r="D2">
-        <v>7.402162108900451</v>
+        <v>7.401832604226632</v>
       </c>
       <c r="E2">
-        <v>30.66230336343275</v>
+        <v>30.66079481689156</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.19903777379316</v>
+        <v>35.89148432689265</v>
       </c>
       <c r="H2">
-        <v>27.82747336256373</v>
+        <v>36.2381574290757</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>27.78638516499482</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -444,34 +447,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.28219735223474</v>
+        <v>24.28021148505565</v>
       </c>
       <c r="C3">
-        <v>23.68454624232185</v>
+        <v>23.67368434635087</v>
       </c>
       <c r="D3">
-        <v>6.848903590543055</v>
+        <v>6.848667492818185</v>
       </c>
       <c r="E3">
-        <v>28.24877045567983</v>
+        <v>28.24770754633821</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.95374308124723</v>
+        <v>33.41564872831977</v>
       </c>
       <c r="H3">
-        <v>26.37336355734296</v>
+        <v>33.99078133300865</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>26.33564074920522</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -482,34 +488,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.04343038737484</v>
+        <v>23.04181027197401</v>
       </c>
       <c r="C4">
-        <v>22.44538343136647</v>
+        <v>22.43529650940008</v>
       </c>
       <c r="D4">
-        <v>6.49540700428867</v>
+        <v>6.495221522849387</v>
       </c>
       <c r="E4">
-        <v>26.72163556577082</v>
+        <v>26.72080879034412</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.56640657134847</v>
+        <v>31.87013019364436</v>
       </c>
       <c r="H4">
-        <v>25.48949336913667</v>
+        <v>32.60219746666471</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>25.45391186295256</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -520,34 +529,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.52545302025202</v>
+        <v>22.52397631904038</v>
       </c>
       <c r="C5">
-        <v>21.92824031908751</v>
+        <v>21.91846721187883</v>
       </c>
       <c r="D5">
-        <v>6.34772502720255</v>
+        <v>6.347558785395012</v>
       </c>
       <c r="E5">
-        <v>26.08683845604251</v>
+        <v>26.08610038759863</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.99866442786415</v>
+        <v>31.23359599193514</v>
       </c>
       <c r="H5">
-        <v>25.13138415472105</v>
+        <v>32.03395632622082</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>25.09669501279463</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -558,34 +570,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.43863275088584</v>
+        <v>22.43717955913778</v>
       </c>
       <c r="C6">
-        <v>21.84161647960841</v>
+        <v>21.83189540216677</v>
       </c>
       <c r="D6">
-        <v>6.322979014000286</v>
+        <v>6.322815890994563</v>
       </c>
       <c r="E6">
-        <v>25.98064790532834</v>
+        <v>25.979924160219</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.90424537799764</v>
+        <v>31.12748830297058</v>
       </c>
       <c r="H6">
-        <v>25.07204302606465</v>
+        <v>31.93945502833039</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>25.03750327023415</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -596,34 +611,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.03649877905791</v>
+        <v>23.03488061894533</v>
       </c>
       <c r="C7">
-        <v>22.43845914565349</v>
+        <v>22.4283764620595</v>
       </c>
       <c r="D7">
-        <v>6.493430206721171</v>
+        <v>6.493244990008034</v>
       </c>
       <c r="E7">
-        <v>26.71312633801644</v>
+        <v>26.71230078715956</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.55875958194487</v>
+        <v>31.86157317909156</v>
       </c>
       <c r="H7">
-        <v>25.48465551988928</v>
+        <v>32.59454370776616</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>25.449085967612</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -634,34 +652,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.56061730414538</v>
+        <v>25.5582180539747</v>
       </c>
       <c r="C8">
-        <v>24.96702874167587</v>
+        <v>24.955328587521</v>
       </c>
       <c r="D8">
-        <v>7.214158125019045</v>
+        <v>7.213862430693593</v>
       </c>
       <c r="E8">
-        <v>29.83878086217685</v>
+        <v>29.83743504979874</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.42647468780082</v>
+        <v>35.04278905458085</v>
       </c>
       <c r="H8">
-        <v>27.3240851116643</v>
+        <v>35.46487127842571</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>27.28414249018019</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -672,34 +693,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.1425498453866</v>
+        <v>30.13831525857639</v>
       </c>
       <c r="C9">
-        <v>29.59671828967613</v>
+        <v>29.58163527222606</v>
       </c>
       <c r="D9">
-        <v>8.526604507180256</v>
+        <v>8.526020502527757</v>
       </c>
       <c r="E9">
-        <v>35.67031997196749</v>
+        <v>35.66753826715884</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.06730389396466</v>
+        <v>41.11193479042584</v>
       </c>
       <c r="H9">
-        <v>31.01919138653397</v>
+        <v>41.11013205061653</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>30.97119056559902</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -710,34 +734,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.33653391929207</v>
+        <v>33.33060675964038</v>
       </c>
       <c r="C10">
-        <v>32.85860712466985</v>
+        <v>32.84072067154877</v>
       </c>
       <c r="D10">
-        <v>9.444018708684569</v>
+        <v>9.443143331412781</v>
       </c>
       <c r="E10">
-        <v>39.88226193654347</v>
+        <v>39.87792598353222</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>45.59242553704815</v>
+        <v>45.64146868974061</v>
       </c>
       <c r="H10">
-        <v>33.86876926154859</v>
+        <v>45.53084373763436</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>33.81382047075127</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -748,34 +775,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.7679025557664</v>
+        <v>34.76107440403365</v>
       </c>
       <c r="C11">
-        <v>34.3309309401967</v>
+        <v>34.31163264971803</v>
       </c>
       <c r="D11">
-        <v>9.855609548717387</v>
+        <v>9.854571467642975</v>
       </c>
       <c r="E11">
-        <v>41.81734505968736</v>
+        <v>41.81209898674928</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>47.66182529286648</v>
+        <v>47.7127930583507</v>
       </c>
       <c r="H11">
-        <v>35.38580109929541</v>
+        <v>47.55818829706919</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.32830727279319</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -786,34 +816,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.30861903208836</v>
+        <v>35.30142354780396</v>
       </c>
       <c r="C12">
-        <v>34.88895529321498</v>
+        <v>34.86909395507749</v>
       </c>
       <c r="D12">
-        <v>10.01113927013345</v>
+        <v>10.01003355101915</v>
       </c>
       <c r="E12">
-        <v>42.55696453906526</v>
+        <v>42.55133147392837</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>48.45007975172717</v>
+        <v>48.50175917644587</v>
       </c>
       <c r="H12">
-        <v>35.96478935991276</v>
+        <v>48.33121424369205</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.9063126920746</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -824,34 +857,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.19218990380508</v>
+        <v>35.185074844791</v>
       </c>
       <c r="C13">
-        <v>34.76871167649702</v>
+        <v>34.74897304612269</v>
       </c>
       <c r="D13">
-        <v>9.977648401721515</v>
+        <v>9.976557552688252</v>
       </c>
       <c r="E13">
-        <v>42.3972891945668</v>
+        <v>42.39174163998211</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>48.28004988344214</v>
+        <v>48.33157691855667</v>
       </c>
       <c r="H13">
-        <v>35.83984825577026</v>
+        <v>48.16443451698225</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.78158430645139</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -862,34 +898,37 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.81240169438395</v>
+        <v>34.80554389907542</v>
       </c>
       <c r="C14">
-        <v>34.37681550761855</v>
+        <v>34.35747152828311</v>
       </c>
       <c r="D14">
-        <v>9.868408345055895</v>
+        <v>9.867364832449795</v>
       </c>
       <c r="E14">
-        <v>41.87802830260524</v>
+        <v>41.87275133908096</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>47.72656176179741</v>
+        <v>47.77758846029887</v>
       </c>
       <c r="H14">
-        <v>35.43332844719596</v>
+        <v>47.62165844322356</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.37575421372103</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -900,34 +939,37 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.57966202014362</v>
+        <v>34.57295813177883</v>
       </c>
       <c r="C15">
-        <v>34.13690611150935</v>
+        <v>34.11779984233115</v>
       </c>
       <c r="D15">
-        <v>9.801469726893739</v>
+        <v>9.800454361938865</v>
       </c>
       <c r="E15">
-        <v>41.56100280292178</v>
+        <v>41.55588556929263</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>47.38824355174976</v>
+        <v>47.43896134091427</v>
       </c>
       <c r="H15">
-        <v>35.18499243574671</v>
+        <v>47.28998983151757</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.12783783473995</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -938,34 +980,37 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.24269780419494</v>
+        <v>33.23682633115544</v>
       </c>
       <c r="C16">
-        <v>32.76232453270062</v>
+        <v>32.74452692792954</v>
       </c>
       <c r="D16">
-        <v>9.41704391510258</v>
+        <v>9.416178435185051</v>
       </c>
       <c r="E16">
-        <v>39.75650450293226</v>
+        <v>39.75222295393211</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>45.45764346608537</v>
+        <v>45.50655878810359</v>
       </c>
       <c r="H16">
-        <v>33.77012047117073</v>
+        <v>45.39891230511549</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>33.71533593880115</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -976,34 +1021,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.41810529217229</v>
+        <v>32.41270658438391</v>
       </c>
       <c r="C17">
-        <v>31.91744923199519</v>
+        <v>31.90041427630746</v>
       </c>
       <c r="D17">
-        <v>9.180050911863367</v>
+        <v>9.179268659239581</v>
       </c>
       <c r="E17">
-        <v>38.65691311189104</v>
+        <v>38.65308463411164</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.2779520863249</v>
+        <v>44.32573752724977</v>
       </c>
       <c r="H17">
-        <v>33.00280208137652</v>
+        <v>44.24480005683558</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>32.95070301959347</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1014,34 +1062,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.94165731384648</v>
+        <v>31.93651876268812</v>
       </c>
       <c r="C18">
-        <v>31.43025605998523</v>
+        <v>31.41364759180379</v>
       </c>
       <c r="D18">
-        <v>9.043161747794331</v>
+        <v>9.042424658666251</v>
       </c>
       <c r="E18">
-        <v>38.02594280374395</v>
+        <v>38.02235685363818</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.60022059821713</v>
+        <v>43.64734881638594</v>
       </c>
       <c r="H18">
-        <v>32.57999852024668</v>
+        <v>43.58229823695576</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>32.52876527492249</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1052,34 +1103,37 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.77992192439907</v>
+        <v>31.77486961458315</v>
       </c>
       <c r="C19">
-        <v>31.26503175458389</v>
+        <v>31.24856581086323</v>
       </c>
       <c r="D19">
-        <v>8.996701370912859</v>
+        <v>8.995979149345589</v>
       </c>
       <c r="E19">
-        <v>37.81245752964292</v>
+        <v>37.80895090013475</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>43.37081135400032</v>
+        <v>43.41771590679811</v>
       </c>
       <c r="H19">
-        <v>32.43735642086305</v>
+        <v>43.35813690836752</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>32.38641605449158</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1090,34 +1144,37 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.50609719292875</v>
+        <v>32.50064941988268</v>
       </c>
       <c r="C20">
-        <v>32.00750276735631</v>
+        <v>31.99038793821364</v>
       </c>
       <c r="D20">
-        <v>9.205335789559244</v>
+        <v>9.204544967446589</v>
       </c>
       <c r="E20">
-        <v>38.77378712555321</v>
+        <v>38.76991236370313</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44.40343086519518</v>
+        <v>44.45133737400231</v>
       </c>
       <c r="H20">
-        <v>33.0813081260326</v>
+        <v>44.36750297457901</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.02904864261319</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1128,34 +1185,37 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.92397328887471</v>
+        <v>34.91704071247298</v>
       </c>
       <c r="C21">
-        <v>34.49189127446159</v>
+        <v>34.47243223671818</v>
       </c>
       <c r="D21">
-        <v>9.900499102928508</v>
+        <v>9.899441867160522</v>
       </c>
       <c r="E21">
-        <v>42.03032235629608</v>
+        <v>42.02496720043079</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.88897987261333</v>
+        <v>47.94015405416374</v>
       </c>
       <c r="H21">
-        <v>35.55258853835024</v>
+        <v>47.78091195212538</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.49481233328723</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1166,34 +1226,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.49782484140106</v>
+        <v>36.4897634286785</v>
       </c>
       <c r="C22">
-        <v>36.11996026581073</v>
+        <v>36.09879624736735</v>
       </c>
       <c r="D22">
-        <v>10.35324803620371</v>
+        <v>10.35198015431592</v>
       </c>
       <c r="E22">
-        <v>44.20160455032656</v>
+        <v>44.19502333295124</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>50.19615088239021</v>
+        <v>50.24935572731408</v>
       </c>
       <c r="H22">
-        <v>37.24939343195823</v>
+        <v>50.04495351713027</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.18870658232097</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1204,34 +1267,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.65766597277278</v>
+        <v>35.6502248663744</v>
       </c>
       <c r="C23">
-        <v>35.24973055589532</v>
+        <v>35.22949634977466</v>
       </c>
       <c r="D23">
-        <v>10.11154712107014</v>
+        <v>10.11039578158199</v>
       </c>
       <c r="E23">
-        <v>43.03706548049239</v>
+        <v>43.03116856560602</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.96080234141516</v>
+        <v>49.01293560126926</v>
       </c>
       <c r="H23">
-        <v>36.34024273806759</v>
+        <v>48.83228584216261</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>36.28112460309894</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1242,34 +1308,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.46632359137046</v>
+        <v>32.46089803648709</v>
       </c>
       <c r="C24">
-        <v>31.96679427353553</v>
+        <v>31.94971559185934</v>
       </c>
       <c r="D24">
-        <v>9.193906521163637</v>
+        <v>9.193119581563888</v>
       </c>
       <c r="E24">
-        <v>38.72094493759149</v>
+        <v>38.71709115578552</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44.34670060224634</v>
+        <v>44.39455239970543</v>
       </c>
       <c r="H24">
-        <v>33.04580609500902</v>
+        <v>44.31202604026506</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>32.99361914522255</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1280,34 +1349,37 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.93768988938555</v>
+        <v>28.93399781570009</v>
       </c>
       <c r="C25">
-        <v>28.37396843425194</v>
+        <v>28.35983918173698</v>
       </c>
       <c r="D25">
-        <v>8.181017967736484</v>
+        <v>8.180522652431092</v>
       </c>
       <c r="E25">
-        <v>34.11491911261258</v>
+        <v>34.11259041677749</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.49556844024101</v>
+        <v>39.48158108101607</v>
       </c>
       <c r="H25">
-        <v>30.00693989020893</v>
+        <v>39.53781867261087</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>29.96107770431242</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>9.330046680896704</v>
+      </c>
+      <c r="C2">
+        <v>17.95680362881675</v>
+      </c>
+      <c r="D2">
+        <v>10.60040950489097</v>
+      </c>
+      <c r="E2">
+        <v>10.43744955904794</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.183438733012649</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>66.58439617191192</v>
+      </c>
+      <c r="J2">
+        <v>5.238922289013894</v>
+      </c>
+      <c r="K2">
+        <v>12.65566783367697</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>13.96850471713157</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>8.850042802451572</v>
+      </c>
+      <c r="C3">
+        <v>17.02058152699721</v>
+      </c>
+      <c r="D3">
+        <v>10.27485795975073</v>
+      </c>
+      <c r="E3">
+        <v>10.20126023522201</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.197199720663679</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>63.06275667557533</v>
+      </c>
+      <c r="J3">
+        <v>5.250968802150719</v>
+      </c>
+      <c r="K3">
+        <v>12.17394698788245</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>13.64173202475242</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>8.605180004739552</v>
+      </c>
+      <c r="C4">
+        <v>16.43415508266193</v>
+      </c>
+      <c r="D4">
+        <v>10.07898687521732</v>
+      </c>
+      <c r="E4">
+        <v>10.0611981354541</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.205769420537949</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>60.8366772501283</v>
+      </c>
+      <c r="J4">
+        <v>5.25991777739483</v>
+      </c>
+      <c r="K4">
+        <v>11.88813872281635</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>13.45264714116776</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>8.509745384899595</v>
+      </c>
+      <c r="C5">
+        <v>16.19240781461421</v>
+      </c>
+      <c r="D5">
+        <v>10.00020225332663</v>
+      </c>
+      <c r="E5">
+        <v>10.00535568274897</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.20929696769587</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>59.91362994308152</v>
+      </c>
+      <c r="J5">
+        <v>5.263946716912189</v>
+      </c>
+      <c r="K5">
+        <v>11.77420852686728</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>13.37844022069476</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>8.494161580514817</v>
+      </c>
+      <c r="C6">
+        <v>16.15210351157398</v>
+      </c>
+      <c r="D6">
+        <v>9.987183469913747</v>
+      </c>
+      <c r="E6">
+        <v>9.996157313217077</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.20988498590423</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>59.75940552264264</v>
+      </c>
+      <c r="J6">
+        <v>5.264638573839263</v>
+      </c>
+      <c r="K6">
+        <v>11.75544507404738</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>13.36628850397143</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>8.60387531334719</v>
+      </c>
+      <c r="C7">
+        <v>16.43090579973445</v>
+      </c>
+      <c r="D7">
+        <v>10.07792013176579</v>
+      </c>
+      <c r="E7">
+        <v>10.06044004233327</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.205816844932253</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>60.82429279228352</v>
+      </c>
+      <c r="J7">
+        <v>5.259970576064379</v>
+      </c>
+      <c r="K7">
+        <v>11.88659188650072</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>13.45163490920644</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>9.12616133871529</v>
+      </c>
+      <c r="C8">
+        <v>17.63646320528739</v>
+      </c>
+      <c r="D8">
+        <v>10.48733627281863</v>
+      </c>
+      <c r="E8">
+        <v>10.35497273576791</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.188161739754444</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>65.38339896448819</v>
+      </c>
+      <c r="J8">
+        <v>5.242748578151261</v>
+      </c>
+      <c r="K8">
+        <v>12.48751440814473</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>13.85339797657615</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>10.89840248385659</v>
+      </c>
+      <c r="C9">
+        <v>19.9057307968032</v>
+      </c>
+      <c r="D9">
+        <v>11.32173558440642</v>
+      </c>
+      <c r="E9">
+        <v>10.97287268537093</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.154236286590298</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>73.82139305418772</v>
+      </c>
+      <c r="J9">
+        <v>5.221704425875561</v>
+      </c>
+      <c r="K9">
+        <v>13.74494404256254</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>14.73609318352963</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>12.20893736552593</v>
+      </c>
+      <c r="C10">
+        <v>21.51600745861858</v>
+      </c>
+      <c r="D10">
+        <v>11.95495027049669</v>
+      </c>
+      <c r="E10">
+        <v>11.45364712149569</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.129315932216589</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>79.73409817008564</v>
+      </c>
+      <c r="J10">
+        <v>5.214650324211236</v>
+      </c>
+      <c r="K10">
+        <v>14.80353737021174</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>15.44815329570203</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>12.80246263631078</v>
+      </c>
+      <c r="C11">
+        <v>22.23780663606525</v>
+      </c>
+      <c r="D11">
+        <v>12.24811832402041</v>
+      </c>
+      <c r="E11">
+        <v>11.67900410676714</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.117865757538909</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>82.37027763706554</v>
+      </c>
+      <c r="J11">
+        <v>5.213437103602468</v>
+      </c>
+      <c r="K11">
+        <v>15.44752479550468</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>15.78770752154635</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>13.02727203700587</v>
+      </c>
+      <c r="C12">
+        <v>22.509826039353</v>
+      </c>
+      <c r="D12">
+        <v>12.35997235743117</v>
+      </c>
+      <c r="E12">
+        <v>11.76539627408006</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.11350190592485</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>83.3618641327196</v>
+      </c>
+      <c r="J12">
+        <v>5.213281522416562</v>
+      </c>
+      <c r="K12">
+        <v>15.69007806545883</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>15.91874406147385</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>12.97884488048655</v>
+      </c>
+      <c r="C13">
+        <v>22.45129542513844</v>
+      </c>
+      <c r="D13">
+        <v>12.33584325797001</v>
+      </c>
+      <c r="E13">
+        <v>11.7467413814682</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.114443188023141</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>83.14858584797005</v>
+      </c>
+      <c r="J13">
+        <v>5.213301219021011</v>
+      </c>
+      <c r="K13">
+        <v>15.63789103684549</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>15.89040989860393</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>12.82095390138435</v>
+      </c>
+      <c r="C14">
+        <v>22.26021045241672</v>
+      </c>
+      <c r="D14">
+        <v>12.25730310074145</v>
+      </c>
+      <c r="E14">
+        <v>11.68608983765758</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.117507374120243</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>82.45198300053414</v>
+      </c>
+      <c r="J14">
+        <v>5.21341810836743</v>
+      </c>
+      <c r="K14">
+        <v>15.46750352726215</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>15.79843738726562</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>12.724262807824</v>
+      </c>
+      <c r="C15">
+        <v>22.14300313695394</v>
+      </c>
+      <c r="D15">
+        <v>12.20930781337989</v>
+      </c>
+      <c r="E15">
+        <v>11.64907976701334</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.119380261908519</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>82.02445925867332</v>
+      </c>
+      <c r="J15">
+        <v>5.213529820841922</v>
+      </c>
+      <c r="K15">
+        <v>15.36297859581973</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>15.74242837084156</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>12.17013077830857</v>
+      </c>
+      <c r="C16">
+        <v>21.4686382378517</v>
+      </c>
+      <c r="D16">
+        <v>11.93590178742252</v>
+      </c>
+      <c r="E16">
+        <v>11.4390610306264</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.130060996765009</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>79.56082120844761</v>
+      </c>
+      <c r="J16">
+        <v>5.214771152483955</v>
+      </c>
+      <c r="K16">
+        <v>14.76124469230173</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>15.42629360445293</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>11.82979009201815</v>
+      </c>
+      <c r="C17">
+        <v>21.05232860204569</v>
+      </c>
+      <c r="D17">
+        <v>11.76954637064637</v>
+      </c>
+      <c r="E17">
+        <v>11.31198516183542</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.136576540420338</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>78.03638590400487</v>
+      </c>
+      <c r="J17">
+        <v>5.216055024417533</v>
+      </c>
+      <c r="K17">
+        <v>14.43274625738275</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15.23648920588504</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>11.63375477841946</v>
+      </c>
+      <c r="C18">
+        <v>20.81185009704675</v>
+      </c>
+      <c r="D18">
+        <v>11.67433630841406</v>
+      </c>
+      <c r="E18">
+        <v>11.23951296506054</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.140314199332475</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>77.15445459595801</v>
+      </c>
+      <c r="J18">
+        <v>5.216980173827362</v>
+      </c>
+      <c r="K18">
+        <v>14.28587233246193</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>15.12877501584429</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>11.56732079210357</v>
+      </c>
+      <c r="C19">
+        <v>20.73024594335826</v>
+      </c>
+      <c r="D19">
+        <v>11.64217862560214</v>
+      </c>
+      <c r="E19">
+        <v>11.21507884300835</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.141578324133335</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>76.85494245171961</v>
+      </c>
+      <c r="J19">
+        <v>5.217325007052466</v>
+      </c>
+      <c r="K19">
+        <v>14.23634026740248</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>15.09254956726943</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>11.86604612241144</v>
+      </c>
+      <c r="C20">
+        <v>21.09675048569094</v>
+      </c>
+      <c r="D20">
+        <v>11.78720560693901</v>
+      </c>
+      <c r="E20">
+        <v>11.32544798017285</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.135884052514782</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>78.19918767038965</v>
+      </c>
+      <c r="J20">
+        <v>5.215898917394869</v>
+      </c>
+      <c r="K20">
+        <v>14.4600241116432</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>15.2565421727124</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>12.86732486714894</v>
+      </c>
+      <c r="C21">
+        <v>22.31637001361458</v>
+      </c>
+      <c r="D21">
+        <v>12.28034849322559</v>
+      </c>
+      <c r="E21">
+        <v>11.70387511348093</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.116608208724258</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>82.65676379047261</v>
+      </c>
+      <c r="J21">
+        <v>5.213375381391121</v>
+      </c>
+      <c r="K21">
+        <v>15.5175825058608</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>15.82538338404177</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>13.52231348084152</v>
+      </c>
+      <c r="C22">
+        <v>23.10599835083645</v>
+      </c>
+      <c r="D22">
+        <v>12.60760765559808</v>
+      </c>
+      <c r="E22">
+        <v>11.95741442964443</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.103840607583173</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>85.53181727452305</v>
+      </c>
+      <c r="J22">
+        <v>5.213506983723375</v>
+      </c>
+      <c r="K22">
+        <v>16.22162032412521</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>16.21160344091703</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>13.17250815135414</v>
+      </c>
+      <c r="C23">
+        <v>22.68514139756725</v>
+      </c>
+      <c r="D23">
+        <v>12.43244417679149</v>
+      </c>
+      <c r="E23">
+        <v>11.82148604908776</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.110674842818425</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>84.00042990598496</v>
+      </c>
+      <c r="J23">
+        <v>5.213267496002284</v>
+      </c>
+      <c r="K23">
+        <v>15.84638650651474</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>16.0040640109327</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>11.84965595154345</v>
+      </c>
+      <c r="C24">
+        <v>21.07667090838413</v>
+      </c>
+      <c r="D24">
+        <v>11.77922053427714</v>
+      </c>
+      <c r="E24">
+        <v>11.31935962348435</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.136197151041888</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>78.12560223714718</v>
+      </c>
+      <c r="J24">
+        <v>5.215968912051745</v>
+      </c>
+      <c r="K24">
+        <v>14.44768834715753</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>15.24747185901999</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>10.41107056285508</v>
+      </c>
+      <c r="C25">
+        <v>19.30214092420201</v>
+      </c>
+      <c r="D25">
+        <v>11.09261186773093</v>
+      </c>
+      <c r="E25">
+        <v>10.80121804483551</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.163379123352332</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>71.5911950933809</v>
+      </c>
+      <c r="J25">
+        <v>5.225972758519188</v>
+      </c>
+      <c r="K25">
+        <v>13.39619245313876</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>14.48663888698329</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.330046680896704</v>
+        <v>14.73660810783698</v>
       </c>
       <c r="C2">
-        <v>17.95680362881675</v>
+        <v>17.80111857467285</v>
       </c>
       <c r="D2">
-        <v>10.60040950489097</v>
+        <v>14.6057720875824</v>
       </c>
       <c r="E2">
-        <v>10.43744955904794</v>
+        <v>15.27805400130843</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.183438733012649</v>
+        <v>3.831539936327273</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>66.58439617191192</v>
+        <v>54.94166074240064</v>
       </c>
       <c r="J2">
-        <v>5.238922289013894</v>
+        <v>8.9959315605343</v>
       </c>
       <c r="K2">
-        <v>12.65566783367697</v>
+        <v>18.05490431119427</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.96850471713157</v>
+        <v>21.58195125715804</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.850042802451572</v>
+        <v>14.8225020206052</v>
       </c>
       <c r="C3">
-        <v>17.02058152699721</v>
+        <v>17.57506533151998</v>
       </c>
       <c r="D3">
-        <v>10.27485795975073</v>
+        <v>14.58691156789853</v>
       </c>
       <c r="E3">
-        <v>10.20126023522201</v>
+        <v>15.27395774500216</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.197199720663679</v>
+        <v>3.835835349899482</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>63.06275667557533</v>
+        <v>53.64733881347002</v>
       </c>
       <c r="J3">
-        <v>5.250968802150719</v>
+        <v>9.010161120887702</v>
       </c>
       <c r="K3">
-        <v>12.17394698788245</v>
+        <v>18.07295164217562</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.64173202475242</v>
+        <v>21.61392487222412</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.605180004739552</v>
+        <v>14.88245211535165</v>
       </c>
       <c r="C4">
-        <v>16.43415508266193</v>
+        <v>17.43796371365347</v>
       </c>
       <c r="D4">
-        <v>10.07898687521732</v>
+        <v>14.57821892355886</v>
       </c>
       <c r="E4">
-        <v>10.0611981354541</v>
+        <v>15.27399034997376</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.205769420537949</v>
+        <v>3.838602358811631</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>60.8366772501283</v>
+        <v>52.83364144276865</v>
       </c>
       <c r="J4">
-        <v>5.25991777739483</v>
+        <v>9.019642811693082</v>
       </c>
       <c r="K4">
-        <v>11.88813872281635</v>
+        <v>18.08997821030006</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.45264714116776</v>
+        <v>21.63866654137562</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.509745384899595</v>
+        <v>14.9086800710223</v>
       </c>
       <c r="C5">
-        <v>16.19240781461421</v>
+        <v>17.3825731461305</v>
       </c>
       <c r="D5">
-        <v>10.00020225332663</v>
+        <v>14.5754040382008</v>
       </c>
       <c r="E5">
-        <v>10.00535568274897</v>
+        <v>15.27464444660636</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.20929696769587</v>
+        <v>3.839762674575924</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>59.91362994308152</v>
+        <v>52.49757089651473</v>
       </c>
       <c r="J5">
-        <v>5.263946716912189</v>
+        <v>9.02369424822365</v>
       </c>
       <c r="K5">
-        <v>11.77420852686728</v>
+        <v>18.09840654971507</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.37844022069476</v>
+        <v>21.65003082234906</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.494161580514817</v>
+        <v>14.91314332889524</v>
       </c>
       <c r="C6">
-        <v>16.15210351157398</v>
+        <v>17.37340607132736</v>
       </c>
       <c r="D6">
-        <v>9.987183469913747</v>
+        <v>14.57498059201098</v>
       </c>
       <c r="E6">
-        <v>9.996157313217077</v>
+        <v>15.27479176195194</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.20988498590423</v>
+        <v>3.839957325652892</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>59.75940552264264</v>
+        <v>52.44150470861128</v>
       </c>
       <c r="J6">
-        <v>5.264638573839263</v>
+        <v>9.024378324204335</v>
       </c>
       <c r="K6">
-        <v>11.75544507404738</v>
+        <v>18.09989588627494</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.36628850397143</v>
+        <v>21.65199517705834</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.60387531334719</v>
+        <v>14.88279857604717</v>
       </c>
       <c r="C7">
-        <v>16.43090579973445</v>
+        <v>17.43721468650936</v>
       </c>
       <c r="D7">
-        <v>10.07792013176579</v>
+        <v>14.57817801430897</v>
       </c>
       <c r="E7">
-        <v>10.06044004233327</v>
+        <v>15.27399657668932</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.205816844932253</v>
+        <v>3.838617874489446</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>60.82429279228352</v>
+        <v>52.82912683152864</v>
       </c>
       <c r="J7">
-        <v>5.259970576064379</v>
+        <v>9.019696690893223</v>
       </c>
       <c r="K7">
-        <v>11.88659188650072</v>
+        <v>18.09008585278675</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.45163490920644</v>
+        <v>21.63881461812645</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.12616133871529</v>
+        <v>14.76471852762851</v>
       </c>
       <c r="C8">
-        <v>17.63646320528739</v>
+        <v>17.72285547005847</v>
       </c>
       <c r="D8">
-        <v>10.48733627281863</v>
+        <v>14.59867052413581</v>
       </c>
       <c r="E8">
-        <v>10.35497273576791</v>
+        <v>15.27611300055153</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.188161739754444</v>
+        <v>3.832994183228483</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>65.38339896448819</v>
+        <v>54.49948645804034</v>
       </c>
       <c r="J8">
-        <v>5.242748578151261</v>
+        <v>9.0006835421855</v>
       </c>
       <c r="K8">
-        <v>12.48751440814473</v>
+        <v>18.0598902132853</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.85339797657615</v>
+        <v>21.59191351308058</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.89840248385659</v>
+        <v>14.59105286522638</v>
       </c>
       <c r="C9">
-        <v>19.9057307968032</v>
+        <v>18.29409170414871</v>
       </c>
       <c r="D9">
-        <v>11.32173558440642</v>
+        <v>14.6616950820466</v>
       </c>
       <c r="E9">
-        <v>10.97287268537093</v>
+        <v>15.30046319357892</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.154236286590298</v>
+        <v>3.822987825435478</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.82139305418772</v>
+        <v>57.6125913878368</v>
       </c>
       <c r="J9">
-        <v>5.221704425875561</v>
+        <v>8.969293785712933</v>
       </c>
       <c r="K9">
-        <v>13.74494404256254</v>
+        <v>18.04804323295177</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.73609318352963</v>
+        <v>21.54060627327451</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.20893736552593</v>
+        <v>14.49964564075593</v>
       </c>
       <c r="C10">
-        <v>21.51600745861858</v>
+        <v>18.7173622321192</v>
       </c>
       <c r="D10">
-        <v>11.95495027049669</v>
+        <v>14.72179598491216</v>
       </c>
       <c r="E10">
-        <v>11.45364712149569</v>
+        <v>15.33063572259131</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.129315932216589</v>
+        <v>3.81624959684214</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.73409817008564</v>
+        <v>59.78609433121997</v>
       </c>
       <c r="J10">
-        <v>5.214650324211236</v>
+        <v>8.949807021203767</v>
       </c>
       <c r="K10">
-        <v>14.80353737021174</v>
+        <v>18.06842127093461</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.44815329570203</v>
+        <v>21.52784862882674</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.80246263631078</v>
+        <v>14.46610071679534</v>
       </c>
       <c r="C11">
-        <v>22.23780663606525</v>
+        <v>18.9100251736756</v>
       </c>
       <c r="D11">
-        <v>12.24811832402041</v>
+        <v>14.75209641324212</v>
       </c>
       <c r="E11">
-        <v>11.67900410676714</v>
+        <v>15.34701685218419</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.117865757538909</v>
+        <v>3.813315382978558</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.37027763706554</v>
+        <v>60.74744612116969</v>
       </c>
       <c r="J11">
-        <v>5.213437103602468</v>
+        <v>8.941714461871761</v>
       </c>
       <c r="K11">
-        <v>15.44752479550468</v>
+        <v>18.08403080280786</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.78770752154635</v>
+        <v>21.52748293553594</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.02727203700587</v>
+        <v>14.45456780640485</v>
       </c>
       <c r="C12">
-        <v>22.509826039353</v>
+        <v>18.98294277679249</v>
       </c>
       <c r="D12">
-        <v>12.35997235743117</v>
+        <v>14.76399208380897</v>
       </c>
       <c r="E12">
-        <v>11.76539627408006</v>
+        <v>15.35360023993409</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.11350190592485</v>
+        <v>3.81222295883554</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.3618641327196</v>
+        <v>61.10734104043758</v>
       </c>
       <c r="J12">
-        <v>5.213281522416562</v>
+        <v>8.938760737466387</v>
       </c>
       <c r="K12">
-        <v>15.69007806545883</v>
+        <v>18.09085360131148</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.91874406147385</v>
+        <v>21.52812748891343</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.97884488048655</v>
+        <v>14.45699937851531</v>
       </c>
       <c r="C13">
-        <v>22.45129542513844</v>
+        <v>18.96724131312248</v>
       </c>
       <c r="D13">
-        <v>12.33584325797001</v>
+        <v>14.76141146017135</v>
       </c>
       <c r="E13">
-        <v>11.7467413814682</v>
+        <v>15.35216550886141</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.114443188023141</v>
+        <v>3.812457402579772</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.14858584797005</v>
+        <v>61.03001887854072</v>
       </c>
       <c r="J13">
-        <v>5.213301219021011</v>
+        <v>8.939391953414995</v>
       </c>
       <c r="K13">
-        <v>15.63789103684549</v>
+        <v>18.0893436444114</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.89040989860393</v>
+        <v>21.52795383483643</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.82095390138435</v>
+        <v>14.46512837362338</v>
       </c>
       <c r="C14">
-        <v>22.26021045241672</v>
+        <v>18.91602526162562</v>
       </c>
       <c r="D14">
-        <v>12.25730310074145</v>
+        <v>14.75306665390166</v>
       </c>
       <c r="E14">
-        <v>11.68608983765758</v>
+        <v>15.3475508619143</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.117507374120243</v>
+        <v>3.813225134660191</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>82.45198300053414</v>
+        <v>60.77713916866955</v>
       </c>
       <c r="J14">
-        <v>5.21341810836743</v>
+        <v>8.9414692390902</v>
       </c>
       <c r="K14">
-        <v>15.46750352726215</v>
+        <v>18.08457384707949</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.79843738726562</v>
+        <v>21.52752026561631</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.724262807824</v>
+        <v>14.47026037213482</v>
       </c>
       <c r="C15">
-        <v>22.14300313695394</v>
+        <v>18.8846471364578</v>
       </c>
       <c r="D15">
-        <v>12.20930781337989</v>
+        <v>14.74800998771793</v>
       </c>
       <c r="E15">
-        <v>11.64907976701334</v>
+        <v>15.34477371828029</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.119380261908519</v>
+        <v>3.813697823594467</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.02445925867332</v>
+        <v>60.62169689894134</v>
       </c>
       <c r="J15">
-        <v>5.213529820841922</v>
+        <v>8.942756051760586</v>
       </c>
       <c r="K15">
-        <v>15.36297859581973</v>
+        <v>18.0817709411311</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.74242837084156</v>
+        <v>21.52735669027013</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.17013077830857</v>
+        <v>14.50200082462366</v>
       </c>
       <c r="C16">
-        <v>21.4686382378517</v>
+        <v>18.70476873964934</v>
       </c>
       <c r="D16">
-        <v>11.93590178742252</v>
+        <v>14.71987500662601</v>
       </c>
       <c r="E16">
-        <v>11.4390610306264</v>
+        <v>15.32961847812203</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.130060996765009</v>
+        <v>3.816443979135713</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.56082120844761</v>
+        <v>59.7226982973247</v>
       </c>
       <c r="J16">
-        <v>5.214771152483955</v>
+        <v>8.950351401823198</v>
       </c>
       <c r="K16">
-        <v>14.76124469230173</v>
+        <v>18.06752875811181</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.42629360445293</v>
+        <v>21.52798205351605</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.82979009201815</v>
+        <v>14.52354123483004</v>
       </c>
       <c r="C17">
-        <v>21.05232860204569</v>
+        <v>18.59440829208323</v>
       </c>
       <c r="D17">
-        <v>11.76954637064637</v>
+        <v>14.7033705121685</v>
       </c>
       <c r="E17">
-        <v>11.31198516183542</v>
+        <v>15.32100028139403</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.136576540420338</v>
+        <v>3.818162116389079</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.03638590400487</v>
+        <v>59.16402254227088</v>
       </c>
       <c r="J17">
-        <v>5.216055024417533</v>
+        <v>8.95520845526525</v>
       </c>
       <c r="K17">
-        <v>14.43274625738275</v>
+        <v>18.06041579704414</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.23648920588504</v>
+        <v>21.52975936478266</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.63375477841946</v>
+        <v>14.53668635290445</v>
       </c>
       <c r="C18">
-        <v>20.81185009704675</v>
+        <v>18.53094601319058</v>
       </c>
       <c r="D18">
-        <v>11.67433630841406</v>
+        <v>14.69415647146072</v>
       </c>
       <c r="E18">
-        <v>11.23951296506054</v>
+        <v>15.3162933867226</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.140314199332475</v>
+        <v>3.819162686256836</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.15445459595801</v>
+        <v>58.84012079020401</v>
       </c>
       <c r="J18">
-        <v>5.216980173827362</v>
+        <v>8.958074790658403</v>
       </c>
       <c r="K18">
-        <v>14.28587233246193</v>
+        <v>18.05692136333429</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.12877501584429</v>
+        <v>21.53129342522931</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.56732079210357</v>
+        <v>14.54126640413729</v>
       </c>
       <c r="C19">
-        <v>20.73024594335826</v>
+        <v>18.5094629342639</v>
       </c>
       <c r="D19">
-        <v>11.64217862560214</v>
+        <v>14.69108477601201</v>
       </c>
       <c r="E19">
-        <v>11.21507884300835</v>
+        <v>15.31474270743852</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.141578324133335</v>
+        <v>3.819503586299638</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.85494245171961</v>
+        <v>58.73001916144658</v>
       </c>
       <c r="J19">
-        <v>5.217325007052466</v>
+        <v>8.959057774839447</v>
       </c>
       <c r="K19">
-        <v>14.23634026740248</v>
+        <v>18.0558406780322</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.09254956726943</v>
+        <v>21.53190069303222</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.86604612241144</v>
+        <v>14.52116991045137</v>
       </c>
       <c r="C20">
-        <v>21.09675048569094</v>
+        <v>18.6061552984098</v>
       </c>
       <c r="D20">
-        <v>11.78720560693901</v>
+        <v>14.70509860620226</v>
       </c>
       <c r="E20">
-        <v>11.32544798017285</v>
+        <v>15.32189183351422</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.135884052514782</v>
+        <v>3.817977941363312</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.19918767038965</v>
+        <v>59.2237617036967</v>
       </c>
       <c r="J20">
-        <v>5.215898917394869</v>
+        <v>8.954683892800839</v>
       </c>
       <c r="K20">
-        <v>14.4600241116432</v>
+        <v>18.06111121748063</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.2565421727124</v>
+        <v>21.5295171885424</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.86732486714894</v>
+        <v>14.46270883253489</v>
       </c>
       <c r="C21">
-        <v>22.31637001361458</v>
+        <v>18.93107017626433</v>
       </c>
       <c r="D21">
-        <v>12.28034849322559</v>
+        <v>14.75550632007549</v>
       </c>
       <c r="E21">
-        <v>11.70387511348093</v>
+        <v>15.34889599131391</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.116608208724258</v>
+        <v>3.812999126804713</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>82.65676379047261</v>
+        <v>60.85153023598049</v>
       </c>
       <c r="J21">
-        <v>5.213375381391121</v>
+        <v>8.940856086294996</v>
       </c>
       <c r="K21">
-        <v>15.5175825058608</v>
+        <v>18.08595010947607</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.82538338404177</v>
+        <v>21.52762635775692</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.52231348084152</v>
+        <v>14.43132584370215</v>
       </c>
       <c r="C22">
-        <v>23.10599835083645</v>
+        <v>19.14316441519523</v>
       </c>
       <c r="D22">
-        <v>12.60760765559808</v>
+        <v>14.79090558195781</v>
       </c>
       <c r="E22">
-        <v>11.95741442964443</v>
+        <v>15.36875996186812</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.103840607583173</v>
+        <v>3.809854108417243</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>85.53181727452305</v>
+        <v>61.89110739304969</v>
       </c>
       <c r="J22">
-        <v>5.213506983723375</v>
+        <v>8.932464239757946</v>
       </c>
       <c r="K22">
-        <v>16.22162032412521</v>
+        <v>18.10749783971417</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.21160344091703</v>
+        <v>21.53095488522191</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.17250815135414</v>
+        <v>14.44744657544791</v>
       </c>
       <c r="C23">
-        <v>22.68514139756725</v>
+        <v>19.03000744300189</v>
       </c>
       <c r="D23">
-        <v>12.43244417679149</v>
+        <v>14.77178918900435</v>
       </c>
       <c r="E23">
-        <v>11.82148604908776</v>
+        <v>15.35795611250799</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.110674842818425</v>
+        <v>3.811522745058037</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>84.00042990598496</v>
+        <v>61.33855051912083</v>
       </c>
       <c r="J23">
-        <v>5.213267496002284</v>
+        <v>8.936884158605766</v>
       </c>
       <c r="K23">
-        <v>15.84638650651474</v>
+        <v>18.09551137150464</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.0040640109327</v>
+        <v>21.52876051577627</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.84965595154345</v>
+        <v>14.52223961616249</v>
       </c>
       <c r="C24">
-        <v>21.07667090838413</v>
+        <v>18.60084451800927</v>
       </c>
       <c r="D24">
-        <v>11.77922053427714</v>
+        <v>14.7043164792246</v>
       </c>
       <c r="E24">
-        <v>11.31935962348435</v>
+        <v>15.32148799077058</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.136197151041888</v>
+        <v>3.818061167043866</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.12560223714718</v>
+        <v>59.19676205876989</v>
       </c>
       <c r="J24">
-        <v>5.215968912051745</v>
+        <v>8.954920817130557</v>
       </c>
       <c r="K24">
-        <v>14.44768834715753</v>
+        <v>18.06079496494055</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.24747185901999</v>
+        <v>21.52962508093056</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.41107056285508</v>
+        <v>14.63174248296708</v>
       </c>
       <c r="C25">
-        <v>19.30214092420201</v>
+        <v>18.13869779219885</v>
       </c>
       <c r="D25">
-        <v>11.09261186773093</v>
+        <v>14.64221130181662</v>
       </c>
       <c r="E25">
-        <v>10.80121804483551</v>
+        <v>15.29171549646489</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.163379123352332</v>
+        <v>3.825586403996957</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>71.5911950933809</v>
+        <v>56.78938856588738</v>
       </c>
       <c r="J25">
-        <v>5.225972758519188</v>
+        <v>8.977156362341129</v>
       </c>
       <c r="K25">
-        <v>13.39619245313876</v>
+        <v>18.0461521686599</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.48663888698329</v>
+        <v>21.55011588052989</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.73660810783698</v>
+        <v>9.330046680896652</v>
       </c>
       <c r="C2">
-        <v>17.80111857467285</v>
+        <v>17.95680362881684</v>
       </c>
       <c r="D2">
-        <v>14.6057720875824</v>
+        <v>10.60040950489091</v>
       </c>
       <c r="E2">
-        <v>15.27805400130843</v>
+        <v>10.43744955904797</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.831539936327273</v>
+        <v>2.183438733012481</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>54.94166074240064</v>
+        <v>66.58439617191212</v>
       </c>
       <c r="J2">
-        <v>8.9959315605343</v>
+        <v>5.238922289013917</v>
       </c>
       <c r="K2">
-        <v>18.05490431119427</v>
+        <v>12.65566783367702</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21.58195125715804</v>
+        <v>13.96850471713159</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.8225020206052</v>
+        <v>8.850042802451473</v>
       </c>
       <c r="C3">
-        <v>17.57506533151998</v>
+        <v>17.02058152699729</v>
       </c>
       <c r="D3">
-        <v>14.58691156789853</v>
+        <v>10.27485795975065</v>
       </c>
       <c r="E3">
-        <v>15.27395774500216</v>
+        <v>10.20126023522194</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.835835349899482</v>
+        <v>2.197199720663692</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>53.64733881347002</v>
+        <v>63.06275667557642</v>
       </c>
       <c r="J3">
-        <v>9.010161120887702</v>
+        <v>5.250968802150631</v>
       </c>
       <c r="K3">
-        <v>18.07295164217562</v>
+        <v>12.17394698788239</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21.61392487222412</v>
+        <v>13.64173202475235</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.88245211535165</v>
+        <v>8.605180004739536</v>
       </c>
       <c r="C4">
-        <v>17.43796371365347</v>
+        <v>16.43415508266181</v>
       </c>
       <c r="D4">
-        <v>14.57821892355886</v>
+        <v>10.07898687521734</v>
       </c>
       <c r="E4">
-        <v>15.27399034997376</v>
+        <v>10.06119813545409</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.838602358811631</v>
+        <v>2.205769420538226</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>52.83364144276865</v>
+        <v>60.83667725012829</v>
       </c>
       <c r="J4">
-        <v>9.019642811693082</v>
+        <v>5.25991777739482</v>
       </c>
       <c r="K4">
-        <v>18.08997821030006</v>
+        <v>11.88813872281629</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.63866654137562</v>
+        <v>13.45264714116771</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.9086800710223</v>
+        <v>8.509745384899588</v>
       </c>
       <c r="C5">
-        <v>17.3825731461305</v>
+        <v>16.19240781461418</v>
       </c>
       <c r="D5">
-        <v>14.5754040382008</v>
+        <v>10.00020225332666</v>
       </c>
       <c r="E5">
-        <v>15.27464444660636</v>
+        <v>10.00535568274895</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.839762674575924</v>
+        <v>2.209296967695999</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>52.49757089651473</v>
+        <v>59.91362994308203</v>
       </c>
       <c r="J5">
-        <v>9.02369424822365</v>
+        <v>5.263946716912137</v>
       </c>
       <c r="K5">
-        <v>18.09840654971507</v>
+        <v>11.77420852686726</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.65003082234906</v>
+        <v>13.3784402206947</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.91314332889524</v>
+        <v>8.494161580514902</v>
       </c>
       <c r="C6">
-        <v>17.37340607132736</v>
+        <v>16.1521035115739</v>
       </c>
       <c r="D6">
-        <v>14.57498059201098</v>
+        <v>9.987183469913798</v>
       </c>
       <c r="E6">
-        <v>15.27479176195194</v>
+        <v>9.996157313216997</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.839957325652892</v>
+        <v>2.209884985904217</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>52.44150470861128</v>
+        <v>59.75940552264228</v>
       </c>
       <c r="J6">
-        <v>9.024378324204335</v>
+        <v>5.264638573839131</v>
       </c>
       <c r="K6">
-        <v>18.09989588627494</v>
+        <v>11.75544507404744</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.65199517705834</v>
+        <v>13.36628850397141</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.88279857604717</v>
+        <v>8.603875313347213</v>
       </c>
       <c r="C7">
-        <v>17.43721468650936</v>
+        <v>16.4309057997344</v>
       </c>
       <c r="D7">
-        <v>14.57817801430897</v>
+        <v>10.07792013176593</v>
       </c>
       <c r="E7">
-        <v>15.27399657668932</v>
+        <v>10.06044004233331</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.838617874489446</v>
+        <v>2.205816844932262</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>52.82912683152864</v>
+        <v>60.82429279228349</v>
       </c>
       <c r="J7">
-        <v>9.019696690893223</v>
+        <v>5.259970576064302</v>
       </c>
       <c r="K7">
-        <v>18.09008585278675</v>
+        <v>11.8865918865007</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.63881461812645</v>
+        <v>13.45163490920645</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.76471852762851</v>
+        <v>9.12616133871531</v>
       </c>
       <c r="C8">
-        <v>17.72285547005847</v>
+        <v>17.63646320528731</v>
       </c>
       <c r="D8">
-        <v>14.59867052413581</v>
+        <v>10.48733627281867</v>
       </c>
       <c r="E8">
-        <v>15.27611300055153</v>
+        <v>10.35497273576793</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.832994183228483</v>
+        <v>2.188161739754582</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>54.49948645804034</v>
+        <v>65.38339896448836</v>
       </c>
       <c r="J8">
-        <v>9.0006835421855</v>
+        <v>5.242748578151205</v>
       </c>
       <c r="K8">
-        <v>18.0598902132853</v>
+        <v>12.48751440814472</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.59191351308058</v>
+        <v>13.85339797657614</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.59105286522638</v>
+        <v>10.89840248385659</v>
       </c>
       <c r="C9">
-        <v>18.29409170414871</v>
+        <v>19.9057307968033</v>
       </c>
       <c r="D9">
-        <v>14.6616950820466</v>
+        <v>11.32173558440645</v>
       </c>
       <c r="E9">
-        <v>15.30046319357892</v>
+        <v>10.972872685371</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.822987825435478</v>
+        <v>2.154236286590149</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>57.6125913878368</v>
+        <v>73.82139305418836</v>
       </c>
       <c r="J9">
-        <v>8.969293785712933</v>
+        <v>5.221704425875676</v>
       </c>
       <c r="K9">
-        <v>18.04804323295177</v>
+        <v>13.74494404256255</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.54060627327451</v>
+        <v>14.73609318352966</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.49964564075593</v>
+        <v>12.20893736552603</v>
       </c>
       <c r="C10">
-        <v>18.7173622321192</v>
+        <v>21.51600745861847</v>
       </c>
       <c r="D10">
-        <v>14.72179598491216</v>
+        <v>11.95495027049667</v>
       </c>
       <c r="E10">
-        <v>15.33063572259131</v>
+        <v>11.45364712149574</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.81624959684214</v>
+        <v>2.129315932216614</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>59.78609433121997</v>
+        <v>79.73409817008611</v>
       </c>
       <c r="J10">
-        <v>8.949807021203767</v>
+        <v>5.214650324211245</v>
       </c>
       <c r="K10">
-        <v>18.06842127093461</v>
+        <v>14.80353737021175</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.52784862882674</v>
+        <v>15.44815329570205</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.46610071679534</v>
+        <v>12.80246263631085</v>
       </c>
       <c r="C11">
-        <v>18.9100251736756</v>
+        <v>22.23780663606549</v>
       </c>
       <c r="D11">
-        <v>14.75209641324212</v>
+        <v>12.24811832402045</v>
       </c>
       <c r="E11">
-        <v>15.34701685218419</v>
+        <v>11.67900410676717</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.813315382978558</v>
+        <v>2.117865757539034</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>60.74744612116969</v>
+        <v>82.37027763706683</v>
       </c>
       <c r="J11">
-        <v>8.941714461871761</v>
+        <v>5.213437103602473</v>
       </c>
       <c r="K11">
-        <v>18.08403080280786</v>
+        <v>15.44752479550475</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.52748293553594</v>
+        <v>15.78770752154633</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.45456780640485</v>
+        <v>13.02727203700572</v>
       </c>
       <c r="C12">
-        <v>18.98294277679249</v>
+        <v>22.50982603935307</v>
       </c>
       <c r="D12">
-        <v>14.76399208380897</v>
+        <v>12.35997235743113</v>
       </c>
       <c r="E12">
-        <v>15.35360023993409</v>
+        <v>11.76539627408006</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.81222295883554</v>
+        <v>2.113501905924889</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>61.10734104043758</v>
+        <v>83.36186413272007</v>
       </c>
       <c r="J12">
-        <v>8.938760737466387</v>
+        <v>5.21328152241654</v>
       </c>
       <c r="K12">
-        <v>18.09085360131148</v>
+        <v>15.6900780654588</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.52812748891343</v>
+        <v>15.91874406147383</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.45699937851531</v>
+        <v>12.97884488048663</v>
       </c>
       <c r="C13">
-        <v>18.96724131312248</v>
+        <v>22.45129542513837</v>
       </c>
       <c r="D13">
-        <v>14.76141146017135</v>
+        <v>12.33584325796998</v>
       </c>
       <c r="E13">
-        <v>15.35216550886141</v>
+        <v>11.74674138146825</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.812457402579772</v>
+        <v>2.114443188023551</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>61.03001887854072</v>
+        <v>83.14858584796997</v>
       </c>
       <c r="J13">
-        <v>8.939391953414995</v>
+        <v>5.213301219021004</v>
       </c>
       <c r="K13">
-        <v>18.0893436444114</v>
+        <v>15.6378910368455</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.52795383483643</v>
+        <v>15.89040989860392</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.46512837362338</v>
+        <v>12.82095390138427</v>
       </c>
       <c r="C14">
-        <v>18.91602526162562</v>
+        <v>22.26021045241665</v>
       </c>
       <c r="D14">
-        <v>14.75306665390166</v>
+        <v>12.25730310074151</v>
       </c>
       <c r="E14">
-        <v>15.3475508619143</v>
+        <v>11.68608983765767</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.813225134660191</v>
+        <v>2.117507374120268</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>60.77713916866955</v>
+        <v>82.45198300053384</v>
       </c>
       <c r="J14">
-        <v>8.9414692390902</v>
+        <v>5.213418108367465</v>
       </c>
       <c r="K14">
-        <v>18.08457384707949</v>
+        <v>15.46750352726206</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.52752026561631</v>
+        <v>15.79843738726567</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.47026037213482</v>
+        <v>12.72426280782401</v>
       </c>
       <c r="C15">
-        <v>18.8846471364578</v>
+        <v>22.14300313695382</v>
       </c>
       <c r="D15">
-        <v>14.74800998771793</v>
+        <v>12.20930781337992</v>
       </c>
       <c r="E15">
-        <v>15.34477371828029</v>
+        <v>11.64907976701326</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.813697823594467</v>
+        <v>2.119380261908394</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>60.62169689894134</v>
+        <v>82.02445925867319</v>
       </c>
       <c r="J15">
-        <v>8.942756051760586</v>
+        <v>5.213529820841843</v>
       </c>
       <c r="K15">
-        <v>18.0817709411311</v>
+        <v>15.3629785958197</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.52735669027013</v>
+        <v>15.74242837084151</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.50200082462366</v>
+        <v>12.17013077830854</v>
       </c>
       <c r="C16">
-        <v>18.70476873964934</v>
+        <v>21.46863823785168</v>
       </c>
       <c r="D16">
-        <v>14.71987500662601</v>
+        <v>11.93590178742256</v>
       </c>
       <c r="E16">
-        <v>15.32961847812203</v>
+        <v>11.43906103062643</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.816443979135713</v>
+        <v>2.130060996765271</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>59.7226982973247</v>
+        <v>79.56082120844825</v>
       </c>
       <c r="J16">
-        <v>8.950351401823198</v>
+        <v>5.21477115248395</v>
       </c>
       <c r="K16">
-        <v>18.06752875811181</v>
+        <v>14.76124469230174</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.52798205351605</v>
+        <v>15.42629360445295</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.52354123483004</v>
+        <v>11.82979009201801</v>
       </c>
       <c r="C17">
-        <v>18.59440829208323</v>
+        <v>21.05232860204573</v>
       </c>
       <c r="D17">
-        <v>14.7033705121685</v>
+        <v>11.76954637064639</v>
       </c>
       <c r="E17">
-        <v>15.32100028139403</v>
+        <v>11.31198516183547</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.818162116389079</v>
+        <v>2.136576540420385</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>59.16402254227088</v>
+        <v>78.03638590400575</v>
       </c>
       <c r="J17">
-        <v>8.95520845526525</v>
+        <v>5.216055024417508</v>
       </c>
       <c r="K17">
-        <v>18.06041579704414</v>
+        <v>14.4327462573827</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.52975936478266</v>
+        <v>15.23648920588504</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.53668635290445</v>
+        <v>11.63375477841955</v>
       </c>
       <c r="C18">
-        <v>18.53094601319058</v>
+        <v>20.81185009704694</v>
       </c>
       <c r="D18">
-        <v>14.69415647146072</v>
+        <v>11.67433630841404</v>
       </c>
       <c r="E18">
-        <v>15.3162933867226</v>
+        <v>11.23951296506053</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.819162686256836</v>
+        <v>2.14031419933263</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>58.84012079020401</v>
+        <v>77.15445459595922</v>
       </c>
       <c r="J18">
-        <v>8.958074790658403</v>
+        <v>5.216980173827293</v>
       </c>
       <c r="K18">
-        <v>18.05692136333429</v>
+        <v>14.28587233246193</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.53129342522931</v>
+        <v>15.12877501584425</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.54126640413729</v>
+        <v>11.56732079210365</v>
       </c>
       <c r="C19">
-        <v>18.5094629342639</v>
+        <v>20.73024594335828</v>
       </c>
       <c r="D19">
-        <v>14.69108477601201</v>
+        <v>11.64217862560212</v>
       </c>
       <c r="E19">
-        <v>15.31474270743852</v>
+        <v>11.21507884300828</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.819503586299638</v>
+        <v>2.141578324133467</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>58.73001916144658</v>
+        <v>76.85494245171965</v>
       </c>
       <c r="J19">
-        <v>8.959057774839447</v>
+        <v>5.217325007052473</v>
       </c>
       <c r="K19">
-        <v>18.0558406780322</v>
+        <v>14.23634026740247</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.53190069303222</v>
+        <v>15.09254956726937</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.52116991045137</v>
+        <v>11.8660461224113</v>
       </c>
       <c r="C20">
-        <v>18.6061552984098</v>
+        <v>21.09675048569096</v>
       </c>
       <c r="D20">
-        <v>14.70509860620226</v>
+        <v>11.78720560693902</v>
       </c>
       <c r="E20">
-        <v>15.32189183351422</v>
+        <v>11.32544798017287</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.817977941363312</v>
+        <v>2.135884052514865</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>59.2237617036967</v>
+        <v>78.1991876703905</v>
       </c>
       <c r="J20">
-        <v>8.954683892800839</v>
+        <v>5.215898917394879</v>
       </c>
       <c r="K20">
-        <v>18.06111121748063</v>
+        <v>14.46002411164317</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.5295171885424</v>
+        <v>15.25654217271243</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.46270883253489</v>
+        <v>12.86732486714903</v>
       </c>
       <c r="C21">
-        <v>18.93107017626433</v>
+        <v>22.31637001361446</v>
       </c>
       <c r="D21">
-        <v>14.75550632007549</v>
+        <v>12.28034849322563</v>
       </c>
       <c r="E21">
-        <v>15.34889599131391</v>
+        <v>11.70387511348094</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.812999126804713</v>
+        <v>2.116608208724668</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>60.85153023598049</v>
+        <v>82.65676379047251</v>
       </c>
       <c r="J21">
-        <v>8.940856086294996</v>
+        <v>5.213375381391101</v>
       </c>
       <c r="K21">
-        <v>18.08595010947607</v>
+        <v>15.5175825058608</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.52762635775692</v>
+        <v>15.82538338404177</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.43132584370215</v>
+        <v>13.52231348084161</v>
       </c>
       <c r="C22">
-        <v>19.14316441519523</v>
+        <v>23.10599835083638</v>
       </c>
       <c r="D22">
-        <v>14.79090558195781</v>
+        <v>12.60760765559808</v>
       </c>
       <c r="E22">
-        <v>15.36875996186812</v>
+        <v>11.95741442964445</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.809854108417243</v>
+        <v>2.103840607582954</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>61.89110739304969</v>
+        <v>85.53181727452225</v>
       </c>
       <c r="J22">
-        <v>8.932464239757946</v>
+        <v>5.213506983723406</v>
       </c>
       <c r="K22">
-        <v>18.10749783971417</v>
+        <v>16.22162032412528</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.53095488522191</v>
+        <v>16.21160344091706</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.44744657544791</v>
+        <v>13.17250815135421</v>
       </c>
       <c r="C23">
-        <v>19.03000744300189</v>
+        <v>22.68514139756746</v>
       </c>
       <c r="D23">
-        <v>14.77178918900435</v>
+        <v>12.43244417679148</v>
       </c>
       <c r="E23">
-        <v>15.35795611250799</v>
+        <v>11.82148604908777</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.811522745058037</v>
+        <v>2.110674842818164</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>61.33855051912083</v>
+        <v>84.00042990598602</v>
       </c>
       <c r="J23">
-        <v>8.936884158605766</v>
+        <v>5.21326749600229</v>
       </c>
       <c r="K23">
-        <v>18.09551137150464</v>
+        <v>15.84638650651486</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.52876051577627</v>
+        <v>16.00406401093266</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.52223961616249</v>
+        <v>11.84965595154336</v>
       </c>
       <c r="C24">
-        <v>18.60084451800927</v>
+        <v>21.07667090838399</v>
       </c>
       <c r="D24">
-        <v>14.7043164792246</v>
+        <v>11.77922053427722</v>
       </c>
       <c r="E24">
-        <v>15.32148799077058</v>
+        <v>11.31935962348437</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.818061167043866</v>
+        <v>2.136197151041488</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>59.19676205876989</v>
+        <v>78.12560223714664</v>
       </c>
       <c r="J24">
-        <v>8.954920817130557</v>
+        <v>5.215968912051676</v>
       </c>
       <c r="K24">
-        <v>18.06079496494055</v>
+        <v>14.44768834715756</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.52962508093056</v>
+        <v>15.24747185902007</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.63174248296708</v>
+        <v>10.41107056285508</v>
       </c>
       <c r="C25">
-        <v>18.13869779219885</v>
+        <v>19.30214092420194</v>
       </c>
       <c r="D25">
-        <v>14.64221130181662</v>
+        <v>11.0926118677309</v>
       </c>
       <c r="E25">
-        <v>15.29171549646489</v>
+        <v>10.80121804483548</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.825586403996957</v>
+        <v>2.163379123352333</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>56.78938856588738</v>
+        <v>71.59119509338052</v>
       </c>
       <c r="J25">
-        <v>8.977156362341129</v>
+        <v>5.225972758519121</v>
       </c>
       <c r="K25">
-        <v>18.0461521686599</v>
+        <v>13.39619245313881</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.55011588052989</v>
+        <v>14.48663888698332</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.330046680896652</v>
+        <v>12.64682436664375</v>
       </c>
       <c r="C2">
-        <v>17.95680362881684</v>
+        <v>10.00565008511002</v>
       </c>
       <c r="D2">
-        <v>10.60040950489091</v>
+        <v>12.09533593949705</v>
       </c>
       <c r="E2">
-        <v>10.43744955904797</v>
+        <v>13.07575450321072</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.183438733012481</v>
+        <v>50.46388834300141</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.214960345125133</v>
       </c>
       <c r="I2">
-        <v>66.58439617191212</v>
+        <v>3.886036715686671</v>
       </c>
       <c r="J2">
-        <v>5.238922289013917</v>
+        <v>15.33211725286605</v>
       </c>
       <c r="K2">
-        <v>12.65566783367702</v>
+        <v>24.1202250907998</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.906948749623362</v>
       </c>
       <c r="M2">
-        <v>13.96850471713159</v>
+        <v>12.10398598618442</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.850042802451473</v>
+        <v>11.8103155604679</v>
       </c>
       <c r="C3">
-        <v>17.02058152699729</v>
+        <v>9.313691572293285</v>
       </c>
       <c r="D3">
-        <v>10.27485795975065</v>
+        <v>11.49870640751433</v>
       </c>
       <c r="E3">
-        <v>10.20126023522194</v>
+        <v>12.3522623409122</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.197199720663692</v>
+        <v>48.61895563847996</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.51676273787913</v>
       </c>
       <c r="I3">
-        <v>63.06275667557642</v>
+        <v>4.102489166157196</v>
       </c>
       <c r="J3">
-        <v>5.250968802150631</v>
+        <v>15.02798144994978</v>
       </c>
       <c r="K3">
-        <v>12.17394698788239</v>
+        <v>23.59588940700839</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.661673906486054</v>
       </c>
       <c r="M3">
-        <v>13.64173202475235</v>
+        <v>11.32099247974564</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.605180004739536</v>
+        <v>11.26538534026095</v>
       </c>
       <c r="C4">
-        <v>16.43415508266181</v>
+        <v>8.892871201004329</v>
       </c>
       <c r="D4">
-        <v>10.07898687521734</v>
+        <v>11.1185974358642</v>
       </c>
       <c r="E4">
-        <v>10.06119813545409</v>
+        <v>11.88709338465688</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.205769420538226</v>
+        <v>47.44909529441492</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.70836240639531</v>
       </c>
       <c r="I4">
-        <v>60.83667725012829</v>
+        <v>4.240235874907262</v>
       </c>
       <c r="J4">
-        <v>5.25991777739482</v>
+        <v>14.83833313884744</v>
       </c>
       <c r="K4">
-        <v>11.88813872281629</v>
+        <v>23.26578297062448</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.505254859081181</v>
       </c>
       <c r="M4">
-        <v>13.45264714116771</v>
+        <v>10.81342085533188</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.509745384899588</v>
+        <v>11.03332806300237</v>
       </c>
       <c r="C5">
-        <v>16.19240781461418</v>
+        <v>8.733785819981769</v>
       </c>
       <c r="D5">
-        <v>10.00020225332666</v>
+        <v>10.96021150032535</v>
       </c>
       <c r="E5">
-        <v>10.00535568274895</v>
+        <v>11.69205001273517</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.209296967695999</v>
+        <v>46.92267118186538</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.788483267166415</v>
       </c>
       <c r="I5">
-        <v>59.91362994308203</v>
+        <v>4.30020302691868</v>
       </c>
       <c r="J5">
-        <v>5.263946716912137</v>
+        <v>14.75208574335784</v>
       </c>
       <c r="K5">
-        <v>11.77420852686726</v>
+        <v>23.11143907805195</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.439866857879647</v>
       </c>
       <c r="M5">
-        <v>13.3784402206947</v>
+        <v>10.60137696338385</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.494161580514902</v>
+        <v>10.99177076654699</v>
       </c>
       <c r="C6">
-        <v>16.1521035115739</v>
+        <v>8.719151650737654</v>
       </c>
       <c r="D6">
-        <v>9.987183469913798</v>
+        <v>10.93351785291427</v>
       </c>
       <c r="E6">
-        <v>9.996157313216997</v>
+        <v>11.65899078119186</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.209884985904217</v>
+        <v>46.78472971108793</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.802407638755454</v>
       </c>
       <c r="I6">
-        <v>59.75940552264228</v>
+        <v>4.313537851181062</v>
       </c>
       <c r="J6">
-        <v>5.264638573839131</v>
+        <v>14.72758629132642</v>
       </c>
       <c r="K6">
-        <v>11.75544507404744</v>
+        <v>23.06383486074312</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.428667290325693</v>
       </c>
       <c r="M6">
-        <v>13.36628850397141</v>
+        <v>10.56765946394845</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.603875313347213</v>
+        <v>11.25549599364338</v>
       </c>
       <c r="C7">
-        <v>16.4309057997344</v>
+        <v>8.922674343007639</v>
       </c>
       <c r="D7">
-        <v>10.07792013176593</v>
+        <v>11.11594710101182</v>
       </c>
       <c r="E7">
-        <v>10.06044004233331</v>
+        <v>11.88351642719574</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.205816844932262</v>
+        <v>47.30717742327526</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.710846093488524</v>
       </c>
       <c r="I7">
-        <v>60.82429279228349</v>
+        <v>4.249812749996991</v>
       </c>
       <c r="J7">
-        <v>5.259970576064302</v>
+        <v>14.80968669850236</v>
       </c>
       <c r="K7">
-        <v>11.8865918865007</v>
+        <v>23.20444981795353</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.503691394231027</v>
       </c>
       <c r="M7">
-        <v>13.45163490920645</v>
+        <v>10.81565329998542</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.12616133871531</v>
+        <v>12.35654827567874</v>
       </c>
       <c r="C8">
-        <v>17.63646320528731</v>
+        <v>9.808765993258003</v>
       </c>
       <c r="D8">
-        <v>10.48733627281867</v>
+        <v>11.89190171411123</v>
       </c>
       <c r="E8">
-        <v>10.35497273576793</v>
+        <v>12.82948890109188</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.188161739754582</v>
+        <v>49.66532162927953</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.319533014155307</v>
       </c>
       <c r="I8">
-        <v>65.38339896448836</v>
+        <v>3.970911464108449</v>
       </c>
       <c r="J8">
-        <v>5.242748578151205</v>
+        <v>15.19251164586933</v>
       </c>
       <c r="K8">
-        <v>12.48751440814472</v>
+        <v>23.86497517338243</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.822742575541218</v>
       </c>
       <c r="M8">
-        <v>13.85339797657614</v>
+        <v>11.84573386915652</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.89840248385659</v>
+        <v>14.27997536146222</v>
       </c>
       <c r="C9">
-        <v>19.9057307968033</v>
+        <v>11.3944646795392</v>
       </c>
       <c r="D9">
-        <v>11.32173558440645</v>
+        <v>13.30029289047845</v>
       </c>
       <c r="E9">
-        <v>10.972872685371</v>
+        <v>14.51751297136738</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.154236286590149</v>
+        <v>54.20230856323462</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.598152803979214</v>
       </c>
       <c r="I9">
-        <v>73.82139305418836</v>
+        <v>3.446931655064225</v>
       </c>
       <c r="J9">
-        <v>5.221704425875676</v>
+        <v>15.96510493734652</v>
       </c>
       <c r="K9">
-        <v>13.74494404256255</v>
+        <v>25.1929633333257</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.402454491342112</v>
       </c>
       <c r="M9">
-        <v>14.73609318352966</v>
+        <v>13.64603077541265</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.20893736552603</v>
+        <v>15.54938692698869</v>
       </c>
       <c r="C10">
-        <v>21.51600745861847</v>
+        <v>12.42444481019641</v>
       </c>
       <c r="D10">
-        <v>11.95495027049667</v>
+        <v>14.12201751745907</v>
       </c>
       <c r="E10">
-        <v>11.45364712149574</v>
+        <v>15.39437243408953</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.129315932216614</v>
+        <v>56.68754529710979</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.135237458262675</v>
       </c>
       <c r="I10">
-        <v>79.73409817008611</v>
+        <v>3.099149731856704</v>
       </c>
       <c r="J10">
-        <v>5.214650324211245</v>
+        <v>16.37754278341245</v>
       </c>
       <c r="K10">
-        <v>14.80353737021175</v>
+        <v>25.86773048419985</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.688130832578361</v>
       </c>
       <c r="M10">
-        <v>15.44815329570205</v>
+        <v>14.82825659505617</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.80246263631085</v>
+        <v>16.14560755589253</v>
       </c>
       <c r="C11">
-        <v>22.23780663606549</v>
+        <v>12.42036989168338</v>
       </c>
       <c r="D11">
-        <v>12.24811832402045</v>
+        <v>13.29252151659335</v>
       </c>
       <c r="E11">
-        <v>11.67900410676717</v>
+        <v>13.5771729263788</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.117865757539034</v>
+        <v>52.64733632321376</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.024068046088808</v>
       </c>
       <c r="I11">
-        <v>82.37027763706683</v>
+        <v>3.045285001711645</v>
       </c>
       <c r="J11">
-        <v>5.213437103602473</v>
+        <v>15.45947613503135</v>
       </c>
       <c r="K11">
-        <v>15.44752479550475</v>
+        <v>24.15063670068885</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.91705499895907</v>
       </c>
       <c r="M11">
-        <v>15.78770752154633</v>
+        <v>15.21609500217986</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.02727203700572</v>
+        <v>16.40229999816318</v>
       </c>
       <c r="C12">
-        <v>22.50982603935307</v>
+        <v>12.16774110811451</v>
       </c>
       <c r="D12">
-        <v>12.35997235743113</v>
+        <v>12.41322399626957</v>
       </c>
       <c r="E12">
-        <v>11.76539627408006</v>
+        <v>11.8789933746314</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.113501905924889</v>
+        <v>48.8738066531541</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.348828130110959</v>
       </c>
       <c r="I12">
-        <v>83.36186413272007</v>
+        <v>3.049261173507187</v>
       </c>
       <c r="J12">
-        <v>5.21328152241654</v>
+        <v>14.64111386668979</v>
       </c>
       <c r="K12">
-        <v>15.6900780654588</v>
+        <v>22.65909646559653</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.298206671010433</v>
       </c>
       <c r="M12">
-        <v>15.91874406147383</v>
+        <v>15.2985750306527</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.97884488048663</v>
+        <v>16.41429501901687</v>
       </c>
       <c r="C13">
-        <v>22.45129542513837</v>
+        <v>11.735455469459</v>
       </c>
       <c r="D13">
-        <v>12.33584325796998</v>
+        <v>11.42015670859474</v>
       </c>
       <c r="E13">
-        <v>11.74674138146825</v>
+        <v>10.14173480300581</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.114443188023551</v>
+        <v>44.82916484336712</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.755105700946197</v>
       </c>
       <c r="I13">
-        <v>83.14858584796997</v>
+        <v>3.112857354220041</v>
       </c>
       <c r="J13">
-        <v>5.213301219021004</v>
+        <v>13.80591314369886</v>
       </c>
       <c r="K13">
-        <v>15.6378910368455</v>
+        <v>21.15967133650937</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4.781830249478506</v>
       </c>
       <c r="M13">
-        <v>15.89040989860392</v>
+        <v>15.16023586074187</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.82095390138427</v>
+        <v>16.31134346055008</v>
       </c>
       <c r="C14">
-        <v>22.26021045241665</v>
+        <v>11.35245981757519</v>
       </c>
       <c r="D14">
-        <v>12.25730310074151</v>
+        <v>10.66395824954799</v>
       </c>
       <c r="E14">
-        <v>11.68608983765767</v>
+        <v>8.914733669682615</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.117507374120268</v>
+        <v>41.82416835635883</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.761570332597372</v>
       </c>
       <c r="I14">
-        <v>82.45198300053384</v>
+        <v>3.18659306786259</v>
       </c>
       <c r="J14">
-        <v>5.213418108367465</v>
+        <v>13.21029921722407</v>
       </c>
       <c r="K14">
-        <v>15.46750352726206</v>
+        <v>20.1012126179006</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.505322760033007</v>
       </c>
       <c r="M14">
-        <v>15.79843738726567</v>
+        <v>14.96344756427041</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.72426280782401</v>
+        <v>16.23118326227994</v>
       </c>
       <c r="C15">
-        <v>22.14300313695382</v>
+        <v>11.22831640786496</v>
       </c>
       <c r="D15">
-        <v>12.20930781337992</v>
+        <v>10.45436261452647</v>
       </c>
       <c r="E15">
-        <v>11.64907976701326</v>
+        <v>8.603833966449963</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.119380261908394</v>
+        <v>40.99103378323357</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.999624041490971</v>
       </c>
       <c r="I15">
-        <v>82.02445925867319</v>
+        <v>3.222300279767818</v>
       </c>
       <c r="J15">
-        <v>5.213529820841843</v>
+        <v>13.05308392241245</v>
       </c>
       <c r="K15">
-        <v>15.3629785958197</v>
+        <v>19.82291691638671</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.447425402965131</v>
       </c>
       <c r="M15">
-        <v>15.74242837084151</v>
+        <v>14.86885148558002</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.17013077830854</v>
+        <v>15.71187669318343</v>
       </c>
       <c r="C16">
-        <v>21.46863823785168</v>
+        <v>10.87207127676645</v>
       </c>
       <c r="D16">
-        <v>11.93590178742256</v>
+        <v>10.25240042321926</v>
       </c>
       <c r="E16">
-        <v>11.43906103062643</v>
+        <v>8.476819949767073</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.130060996765271</v>
+        <v>40.50404275816705</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.840681395141111</v>
       </c>
       <c r="I16">
-        <v>79.56082120844825</v>
+        <v>3.361962123284316</v>
       </c>
       <c r="J16">
-        <v>5.21477115248395</v>
+        <v>13.01640229785254</v>
       </c>
       <c r="K16">
-        <v>14.76124469230174</v>
+        <v>19.77969773821121</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4.403219091372856</v>
       </c>
       <c r="M16">
-        <v>15.42629360445295</v>
+        <v>14.40766175981631</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.82979009201801</v>
+        <v>15.36084494745786</v>
       </c>
       <c r="C17">
-        <v>21.05232860204573</v>
+        <v>10.80972453340961</v>
       </c>
       <c r="D17">
-        <v>11.76954637064639</v>
+        <v>10.51339959683705</v>
       </c>
       <c r="E17">
-        <v>11.31198516183547</v>
+        <v>9.043021352673437</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.136576540420385</v>
+        <v>41.76086666620181</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.162834593363447</v>
       </c>
       <c r="I17">
-        <v>78.03638590400575</v>
+        <v>3.431251435815479</v>
       </c>
       <c r="J17">
-        <v>5.216055024417508</v>
+        <v>13.30447025094208</v>
       </c>
       <c r="K17">
-        <v>14.4327462573827</v>
+        <v>20.30558369724548</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>4.499617407082014</v>
       </c>
       <c r="M17">
-        <v>15.23648920588504</v>
+        <v>14.15576062810393</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.63375477841955</v>
+        <v>15.12793136145542</v>
       </c>
       <c r="C18">
-        <v>20.81185009704694</v>
+        <v>10.97792252792595</v>
       </c>
       <c r="D18">
-        <v>11.67433630841404</v>
+        <v>11.20664338228866</v>
       </c>
       <c r="E18">
-        <v>11.23951296506053</v>
+        <v>10.32758351012607</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.14031419933263</v>
+        <v>44.78049698272349</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.998113295050318</v>
       </c>
       <c r="I18">
-        <v>77.15445459595922</v>
+        <v>3.434693151929837</v>
       </c>
       <c r="J18">
-        <v>5.216980173827293</v>
+        <v>13.93500113396155</v>
       </c>
       <c r="K18">
-        <v>14.28587233246193</v>
+        <v>21.44961410975998</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4.825754852753559</v>
       </c>
       <c r="M18">
-        <v>15.12877501584425</v>
+        <v>14.05954654901883</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.56732079210365</v>
+        <v>15.00297733648061</v>
       </c>
       <c r="C19">
-        <v>20.73024594335828</v>
+        <v>11.36169575611132</v>
       </c>
       <c r="D19">
-        <v>11.64217862560212</v>
+        <v>12.18958461613508</v>
       </c>
       <c r="E19">
-        <v>11.21507884300828</v>
+        <v>12.12856566816059</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.141578324133467</v>
+        <v>48.79610161323388</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.650291149578157</v>
       </c>
       <c r="I19">
-        <v>76.85494245171965</v>
+        <v>3.398630956287668</v>
       </c>
       <c r="J19">
-        <v>5.217325007052473</v>
+        <v>14.76730782860324</v>
       </c>
       <c r="K19">
-        <v>14.23634026740247</v>
+        <v>22.95285033258768</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.420497256694945</v>
       </c>
       <c r="M19">
-        <v>15.09254956726937</v>
+        <v>14.1068841178218</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.8660461224113</v>
+        <v>15.20974562630666</v>
       </c>
       <c r="C20">
-        <v>21.09675048569096</v>
+        <v>12.22977237820001</v>
       </c>
       <c r="D20">
-        <v>11.78720560693902</v>
+        <v>13.90285422122791</v>
       </c>
       <c r="E20">
-        <v>11.32544798017287</v>
+        <v>15.15496211458755</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.135884052514865</v>
+        <v>55.6644805676452</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.258873057463138</v>
       </c>
       <c r="I20">
-        <v>78.1991876703905</v>
+        <v>3.219928066033932</v>
       </c>
       <c r="J20">
-        <v>5.215898917394879</v>
+        <v>16.18759104702298</v>
       </c>
       <c r="K20">
-        <v>14.46002411164317</v>
+        <v>25.5174376081917</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.607627654711537</v>
       </c>
       <c r="M20">
-        <v>15.25654217271243</v>
+        <v>14.53755839644804</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.86732486714903</v>
+        <v>16.13195902438792</v>
       </c>
       <c r="C21">
-        <v>22.31637001361446</v>
+        <v>13.06156092271076</v>
       </c>
       <c r="D21">
-        <v>12.28034849322563</v>
+        <v>14.72464133780241</v>
       </c>
       <c r="E21">
-        <v>11.70387511348094</v>
+        <v>16.19742089613239</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.116608208724668</v>
+        <v>58.48855818670854</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.851720665242431</v>
       </c>
       <c r="I21">
-        <v>82.65676379047251</v>
+        <v>2.939132588873429</v>
       </c>
       <c r="J21">
-        <v>5.213375381391101</v>
+        <v>16.70891830286807</v>
       </c>
       <c r="K21">
-        <v>15.5175825058608</v>
+        <v>26.41031841867031</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.989709870895686</v>
       </c>
       <c r="M21">
-        <v>15.82538338404177</v>
+        <v>15.42557228701989</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.52231348084161</v>
+        <v>16.71840000565446</v>
       </c>
       <c r="C22">
-        <v>23.10599835083638</v>
+        <v>13.53291426765356</v>
       </c>
       <c r="D22">
-        <v>12.60760765559808</v>
+        <v>15.17651228682161</v>
       </c>
       <c r="E22">
-        <v>11.95741442964445</v>
+        <v>16.72708748605379</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.103840607582954</v>
+        <v>60.13155979489071</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.607099853702221</v>
       </c>
       <c r="I22">
-        <v>85.53181727452225</v>
+        <v>2.751280231301132</v>
       </c>
       <c r="J22">
-        <v>5.213506983723406</v>
+        <v>17.01249366954701</v>
       </c>
       <c r="K22">
-        <v>16.22162032412528</v>
+        <v>26.93352177167967</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.177724541628681</v>
       </c>
       <c r="M22">
-        <v>16.21160344091706</v>
+        <v>15.97119434228227</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.17250815135421</v>
+        <v>16.41368400912317</v>
       </c>
       <c r="C23">
-        <v>22.68514139756746</v>
+        <v>13.25705090555229</v>
       </c>
       <c r="D23">
-        <v>12.43244417679148</v>
+        <v>14.93714291619504</v>
       </c>
       <c r="E23">
-        <v>11.82148604908777</v>
+        <v>16.44702936109503</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.110674842818164</v>
+        <v>59.38733505268996</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.735840173155284</v>
       </c>
       <c r="I23">
-        <v>84.00042990598602</v>
+        <v>2.838825108247054</v>
       </c>
       <c r="J23">
-        <v>5.21326749600229</v>
+        <v>16.87918666759145</v>
       </c>
       <c r="K23">
-        <v>15.84638650651486</v>
+        <v>26.71604514534854</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.07852472896682</v>
       </c>
       <c r="M23">
-        <v>16.00406401093266</v>
+        <v>15.67778727336124</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.84965595154336</v>
+        <v>15.19845321723445</v>
       </c>
       <c r="C24">
-        <v>21.07667090838399</v>
+        <v>12.21971620583884</v>
       </c>
       <c r="D24">
-        <v>11.77922053427722</v>
+        <v>14.00103961721799</v>
       </c>
       <c r="E24">
-        <v>11.31935962348437</v>
+        <v>15.34659503828196</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.136197151041488</v>
+        <v>56.28709683148837</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.234035725205743</v>
       </c>
       <c r="I24">
-        <v>78.12560223714664</v>
+        <v>3.197974327206143</v>
       </c>
       <c r="J24">
-        <v>5.215968912051676</v>
+        <v>16.32288541394532</v>
       </c>
       <c r="K24">
-        <v>14.44768834715756</v>
+        <v>25.77952527663896</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.690910550770504</v>
       </c>
       <c r="M24">
-        <v>15.24747185902007</v>
+        <v>14.52791141758072</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.41107056285508</v>
+        <v>13.77544995180698</v>
       </c>
       <c r="C25">
-        <v>19.30214092420194</v>
+        <v>11.02743235897432</v>
       </c>
       <c r="D25">
-        <v>11.0926118677309</v>
+        <v>12.9312651202496</v>
       </c>
       <c r="E25">
-        <v>10.80121804483548</v>
+        <v>14.07767072829679</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.163379123352333</v>
+        <v>52.79286212822535</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.790696740939711</v>
       </c>
       <c r="I25">
-        <v>71.59119509338052</v>
+        <v>3.601020170484597</v>
       </c>
       <c r="J25">
-        <v>5.225972758519121</v>
+        <v>15.71274547626621</v>
       </c>
       <c r="K25">
-        <v>13.39619245313881</v>
+        <v>24.74190621517852</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.249681524089599</v>
       </c>
       <c r="M25">
-        <v>14.48663888698332</v>
+        <v>13.18905348228898</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.64682436664375</v>
+        <v>12.53593363902366</v>
       </c>
       <c r="C2">
-        <v>10.00565008511002</v>
+        <v>11.26861367956389</v>
       </c>
       <c r="D2">
-        <v>12.09533593949705</v>
+        <v>12.14838972180692</v>
       </c>
       <c r="E2">
-        <v>13.07575450321072</v>
+        <v>13.17350009701926</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>50.46388834300141</v>
+        <v>44.27197742724245</v>
       </c>
       <c r="H2">
-        <v>3.214960345125133</v>
+        <v>3.067622919215852</v>
       </c>
       <c r="I2">
-        <v>3.886036715686671</v>
+        <v>3.634430463083572</v>
       </c>
       <c r="J2">
-        <v>15.33211725286605</v>
+        <v>14.05731956018785</v>
       </c>
       <c r="K2">
-        <v>24.1202250907998</v>
+        <v>21.16026266215639</v>
       </c>
       <c r="L2">
-        <v>5.906948749623362</v>
+        <v>16.71962323147696</v>
       </c>
       <c r="M2">
-        <v>12.10398598618442</v>
+        <v>14.72412408100831</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.97714046503532</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.37394762289565</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.8103155604679</v>
+        <v>11.73888397137086</v>
       </c>
       <c r="C3">
-        <v>9.313691572293285</v>
+        <v>10.52574276886079</v>
       </c>
       <c r="D3">
-        <v>11.49870640751433</v>
+        <v>11.56125180308932</v>
       </c>
       <c r="E3">
-        <v>12.3522623409122</v>
+        <v>12.46754078016696</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>48.61895563847996</v>
+        <v>43.0815450003242</v>
       </c>
       <c r="H3">
-        <v>3.51676273787913</v>
+        <v>3.347302004165799</v>
       </c>
       <c r="I3">
-        <v>4.102489166157196</v>
+        <v>3.819418318898599</v>
       </c>
       <c r="J3">
-        <v>15.02798144994978</v>
+        <v>13.83107889157852</v>
       </c>
       <c r="K3">
-        <v>23.59588940700839</v>
+        <v>20.90582397196145</v>
       </c>
       <c r="L3">
-        <v>5.661673906486054</v>
+        <v>16.65171540476709</v>
       </c>
       <c r="M3">
-        <v>11.32099247974564</v>
+        <v>14.42572821916453</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.743727093907746</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.57594311207152</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.26538534026095</v>
+        <v>11.2198940381583</v>
       </c>
       <c r="C4">
-        <v>8.892871201004329</v>
+        <v>10.05228537677352</v>
       </c>
       <c r="D4">
-        <v>11.1185974358642</v>
+        <v>11.18746848043051</v>
       </c>
       <c r="E4">
-        <v>11.88709338465688</v>
+        <v>12.01406919549954</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.44909529441492</v>
+        <v>42.33288912116134</v>
       </c>
       <c r="H4">
-        <v>3.70836240639531</v>
+        <v>3.525048742113914</v>
       </c>
       <c r="I4">
-        <v>4.240235874907262</v>
+        <v>3.937539513148816</v>
       </c>
       <c r="J4">
-        <v>14.83833313884744</v>
+        <v>13.68807454623227</v>
       </c>
       <c r="K4">
-        <v>23.26578297062448</v>
+        <v>20.74473408686349</v>
       </c>
       <c r="L4">
-        <v>5.505254859081181</v>
+        <v>16.60195751853387</v>
       </c>
       <c r="M4">
-        <v>10.81342085533188</v>
+        <v>14.25380653028774</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.59500693860137</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.05838739951416</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03332806300237</v>
+        <v>10.99911202195387</v>
       </c>
       <c r="C5">
-        <v>8.733785819981769</v>
+        <v>9.863630497952551</v>
       </c>
       <c r="D5">
-        <v>10.96021150032535</v>
+        <v>11.03181785133066</v>
       </c>
       <c r="E5">
-        <v>11.69205001273517</v>
+        <v>11.82408640643762</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>46.92267118186538</v>
+        <v>41.98909936227394</v>
       </c>
       <c r="H5">
-        <v>3.788483267166415</v>
+        <v>3.599384298258881</v>
       </c>
       <c r="I5">
-        <v>4.30020302691868</v>
+        <v>3.989791117903669</v>
       </c>
       <c r="J5">
-        <v>14.75208574335784</v>
+        <v>13.62173005778406</v>
       </c>
       <c r="K5">
-        <v>23.11143907805195</v>
+        <v>20.66334369195355</v>
       </c>
       <c r="L5">
-        <v>5.439866857879647</v>
+        <v>16.56739568948901</v>
       </c>
       <c r="M5">
-        <v>10.60137696338385</v>
+        <v>14.17701950859231</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.532896019934089</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.84191441661866</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.99177076654699</v>
+        <v>10.9597589340314</v>
       </c>
       <c r="C6">
-        <v>8.719151650737654</v>
+        <v>9.842467919036476</v>
       </c>
       <c r="D6">
-        <v>10.93351785291427</v>
+        <v>11.00561641573417</v>
       </c>
       <c r="E6">
-        <v>11.65899078119186</v>
+        <v>11.79193434133298</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46.78472971108793</v>
+        <v>41.88960518111595</v>
       </c>
       <c r="H6">
-        <v>3.802407638755454</v>
+        <v>3.612261247577592</v>
       </c>
       <c r="I6">
-        <v>4.313537851181062</v>
+        <v>4.002325639571083</v>
       </c>
       <c r="J6">
-        <v>14.72758629132642</v>
+        <v>13.60200614679608</v>
       </c>
       <c r="K6">
-        <v>23.06383486074312</v>
+        <v>20.63198896867213</v>
       </c>
       <c r="L6">
-        <v>5.428667290325693</v>
+        <v>16.54658660629094</v>
       </c>
       <c r="M6">
-        <v>10.56765946394845</v>
+        <v>14.15253489131101</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.52228578331574</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.8072299516333</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.25549599364338</v>
+        <v>11.21295786809443</v>
       </c>
       <c r="C7">
-        <v>8.922674343007639</v>
+        <v>10.06505454355669</v>
       </c>
       <c r="D7">
-        <v>11.11594710101182</v>
+        <v>11.18462838331726</v>
       </c>
       <c r="E7">
-        <v>11.88351642719574</v>
+        <v>12.01013018124654</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.30717742327526</v>
+        <v>42.25664581004805</v>
       </c>
       <c r="H7">
-        <v>3.710846093488524</v>
+        <v>3.528043035266348</v>
       </c>
       <c r="I7">
-        <v>4.249812749996991</v>
+        <v>3.949070461674355</v>
       </c>
       <c r="J7">
-        <v>14.80968669850236</v>
+        <v>13.60457478891805</v>
       </c>
       <c r="K7">
-        <v>23.20444981795353</v>
+        <v>20.67193654686445</v>
       </c>
       <c r="L7">
-        <v>5.503691394231027</v>
+        <v>16.5419333353973</v>
       </c>
       <c r="M7">
-        <v>10.81565329998542</v>
+        <v>14.203785399925</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.593192402001008</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.0573233300733</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.35654827567874</v>
+        <v>12.26604958360408</v>
       </c>
       <c r="C8">
-        <v>9.808765993258003</v>
+        <v>11.01162879314129</v>
       </c>
       <c r="D8">
-        <v>11.89190171411123</v>
+        <v>11.94731904843388</v>
       </c>
       <c r="E8">
-        <v>12.82948890109188</v>
+        <v>12.93158617461735</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.66532162927953</v>
+        <v>43.85816358475697</v>
       </c>
       <c r="H8">
-        <v>3.319533014155307</v>
+        <v>3.166834242869916</v>
       </c>
       <c r="I8">
-        <v>3.970911464108449</v>
+        <v>3.712588054224409</v>
       </c>
       <c r="J8">
-        <v>15.19251164586933</v>
+        <v>13.75908532944187</v>
       </c>
       <c r="K8">
-        <v>23.86497517338243</v>
+        <v>20.93573630062248</v>
       </c>
       <c r="L8">
-        <v>5.822742575541218</v>
+        <v>16.58760456781238</v>
       </c>
       <c r="M8">
-        <v>11.84573386915652</v>
+        <v>14.52015987870884</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.895869855295856</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.10184416842623</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27997536146222</v>
+        <v>14.09939525399769</v>
       </c>
       <c r="C9">
-        <v>11.3944646795392</v>
+        <v>12.7412060724982</v>
       </c>
       <c r="D9">
-        <v>13.30029289047845</v>
+        <v>13.33424587200872</v>
       </c>
       <c r="E9">
-        <v>14.51751297136738</v>
+        <v>14.5799931834152</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>54.20230856323462</v>
+        <v>46.88474974175279</v>
       </c>
       <c r="H9">
-        <v>2.598152803979214</v>
+        <v>2.500075070367793</v>
       </c>
       <c r="I9">
-        <v>3.446931655064225</v>
+        <v>3.264754463797417</v>
       </c>
       <c r="J9">
-        <v>15.96510493734652</v>
+        <v>14.28388743851819</v>
       </c>
       <c r="K9">
-        <v>25.1929633333257</v>
+        <v>21.58291907463923</v>
       </c>
       <c r="L9">
-        <v>6.402454491342112</v>
+        <v>16.7506083389714</v>
       </c>
       <c r="M9">
-        <v>13.64603077541265</v>
+        <v>15.34241139996963</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.44784893644139</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.9344584096385</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.54938692698869</v>
+        <v>15.32293649963328</v>
       </c>
       <c r="C10">
-        <v>12.42444481019641</v>
+        <v>13.8571917921599</v>
       </c>
       <c r="D10">
-        <v>14.12201751745907</v>
+        <v>14.14125961747967</v>
       </c>
       <c r="E10">
-        <v>15.39437243408953</v>
+        <v>15.42991809723028</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.68754529710979</v>
+        <v>48.71489672126217</v>
       </c>
       <c r="H10">
-        <v>2.135237458262675</v>
+        <v>2.078687359688764</v>
       </c>
       <c r="I10">
-        <v>3.099149731856704</v>
+        <v>2.974538330954211</v>
       </c>
       <c r="J10">
-        <v>16.37754278341245</v>
+        <v>14.2312160954212</v>
       </c>
       <c r="K10">
-        <v>25.86773048419985</v>
+        <v>21.72357061793487</v>
       </c>
       <c r="L10">
-        <v>6.688130832578361</v>
+        <v>16.60219985242279</v>
       </c>
       <c r="M10">
-        <v>14.82825659505617</v>
+        <v>15.7460275881114</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.714178548699372</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.12073305727517</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.14560755589253</v>
+        <v>15.9550826156146</v>
       </c>
       <c r="C11">
-        <v>12.42036989168338</v>
+        <v>13.61565016200343</v>
       </c>
       <c r="D11">
-        <v>13.29252151659335</v>
+        <v>13.30835527004298</v>
       </c>
       <c r="E11">
-        <v>13.5771729263788</v>
+        <v>13.60807761134588</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>52.64733632321376</v>
+        <v>45.75705299325973</v>
       </c>
       <c r="H11">
-        <v>3.024068046088808</v>
+        <v>2.991061548893867</v>
       </c>
       <c r="I11">
-        <v>3.045285001711645</v>
+        <v>2.938114926108999</v>
       </c>
       <c r="J11">
-        <v>15.45947613503135</v>
+        <v>12.87118750794463</v>
       </c>
       <c r="K11">
-        <v>24.15063670068885</v>
+        <v>20.10956369123291</v>
       </c>
       <c r="L11">
-        <v>5.91705499895907</v>
+        <v>15.3041003209571</v>
       </c>
       <c r="M11">
-        <v>15.21609500217986</v>
+        <v>14.62681439705192</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.940450688385597</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.46280541513424</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.40229999816318</v>
+        <v>16.24540776547903</v>
       </c>
       <c r="C12">
-        <v>12.16774110811451</v>
+        <v>13.1797701310279</v>
       </c>
       <c r="D12">
-        <v>12.41322399626957</v>
+        <v>12.42953606707424</v>
       </c>
       <c r="E12">
-        <v>11.8789933746314</v>
+        <v>11.9127500937981</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>48.8738066531541</v>
+        <v>42.86261102587458</v>
       </c>
       <c r="H12">
-        <v>4.348828130110959</v>
+        <v>4.324557201691984</v>
       </c>
       <c r="I12">
-        <v>3.049261173507187</v>
+        <v>2.941011901018407</v>
       </c>
       <c r="J12">
-        <v>14.64111386668979</v>
+        <v>12.00140376723473</v>
       </c>
       <c r="K12">
-        <v>22.65909646559653</v>
+        <v>18.89203555543997</v>
       </c>
       <c r="L12">
-        <v>5.298206671010433</v>
+        <v>14.38741456295404</v>
       </c>
       <c r="M12">
-        <v>15.2985750306527</v>
+        <v>13.71272105135984</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.324077594467981</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.51287302373025</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.41429501901687</v>
+        <v>16.28865450485593</v>
       </c>
       <c r="C13">
-        <v>11.735455469459</v>
+        <v>12.60824388362394</v>
       </c>
       <c r="D13">
-        <v>11.42015670859474</v>
+        <v>11.44047559943249</v>
       </c>
       <c r="E13">
-        <v>10.14173480300581</v>
+        <v>10.18682988329932</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.82916484336712</v>
+        <v>39.5438709827462</v>
       </c>
       <c r="H13">
-        <v>5.755105700946197</v>
+        <v>5.731334282458478</v>
       </c>
       <c r="I13">
-        <v>3.112857354220041</v>
+        <v>2.990635441961658</v>
       </c>
       <c r="J13">
-        <v>13.80591314369886</v>
+        <v>11.49238255261346</v>
       </c>
       <c r="K13">
-        <v>21.15967133650937</v>
+        <v>17.8731590355221</v>
       </c>
       <c r="L13">
-        <v>4.781830249478506</v>
+        <v>13.66679543854316</v>
       </c>
       <c r="M13">
-        <v>15.16023586074187</v>
+        <v>12.88643203580141</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.815788816754594</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.35372273457215</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.31134346055008</v>
+        <v>16.20698172305855</v>
       </c>
       <c r="C14">
-        <v>11.35245981757519</v>
+        <v>12.14342556349599</v>
       </c>
       <c r="D14">
-        <v>10.66395824954799</v>
+        <v>10.68874252760112</v>
       </c>
       <c r="E14">
-        <v>8.914733669682615</v>
+        <v>8.973026031756861</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>41.82416835635883</v>
+        <v>37.00021236958312</v>
       </c>
       <c r="H14">
-        <v>6.761570332597372</v>
+        <v>6.736186258663903</v>
       </c>
       <c r="I14">
-        <v>3.18659306786259</v>
+        <v>3.049608498131278</v>
       </c>
       <c r="J14">
-        <v>13.21029921722407</v>
+        <v>11.26825381421254</v>
       </c>
       <c r="K14">
-        <v>20.1012126179006</v>
+        <v>17.23749091187286</v>
       </c>
       <c r="L14">
-        <v>4.505322760033007</v>
+        <v>13.23544508285538</v>
       </c>
       <c r="M14">
-        <v>14.96344756427041</v>
+        <v>12.34287016120135</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.547457902761344</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.14677029131229</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.23118326227994</v>
+        <v>16.13204624001727</v>
       </c>
       <c r="C15">
-        <v>11.22831640786496</v>
+        <v>12.00570624081637</v>
       </c>
       <c r="D15">
-        <v>10.45436261452647</v>
+        <v>10.48106960007985</v>
       </c>
       <c r="E15">
-        <v>8.603833966449963</v>
+        <v>8.667596850061019</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>40.99103378323357</v>
+        <v>36.26688408272416</v>
       </c>
       <c r="H15">
-        <v>6.999624041490971</v>
+        <v>6.972902850850598</v>
       </c>
       <c r="I15">
-        <v>3.222300279767818</v>
+        <v>3.079679027697599</v>
       </c>
       <c r="J15">
-        <v>13.05308392241245</v>
+        <v>11.26111074445142</v>
       </c>
       <c r="K15">
-        <v>19.82291691638671</v>
+        <v>17.10063265782081</v>
       </c>
       <c r="L15">
-        <v>4.447425402965131</v>
+        <v>13.14902073154704</v>
       </c>
       <c r="M15">
-        <v>14.86885148558002</v>
+        <v>12.2148451430904</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.492801205740234</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.05163175235738</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.71187669318343</v>
+        <v>15.61284237319062</v>
       </c>
       <c r="C16">
-        <v>10.87207127676645</v>
+        <v>11.71096744429453</v>
       </c>
       <c r="D16">
-        <v>10.25240042321926</v>
+        <v>10.28664198514253</v>
       </c>
       <c r="E16">
-        <v>8.476819949767073</v>
+        <v>8.55802382799699</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>40.50404275816705</v>
+        <v>35.64774956237773</v>
       </c>
       <c r="H16">
-        <v>6.840681395141111</v>
+        <v>6.803614586813148</v>
       </c>
       <c r="I16">
-        <v>3.361962123284316</v>
+        <v>3.193901771838132</v>
       </c>
       <c r="J16">
-        <v>13.01640229785254</v>
+        <v>11.72305473056339</v>
       </c>
       <c r="K16">
-        <v>19.77969773821121</v>
+        <v>17.35419135963502</v>
       </c>
       <c r="L16">
-        <v>4.403219091372856</v>
+        <v>13.38761879035034</v>
       </c>
       <c r="M16">
-        <v>14.40766175981631</v>
+        <v>12.32608885605311</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.460494378534487</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.60872115966334</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.36084494745786</v>
+        <v>15.25287521580769</v>
       </c>
       <c r="C17">
-        <v>10.80972453340961</v>
+        <v>11.72845040719541</v>
       </c>
       <c r="D17">
-        <v>10.51339959683705</v>
+        <v>10.55067987010261</v>
       </c>
       <c r="E17">
-        <v>9.043021352673437</v>
+        <v>9.12800431016454</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.76086666620181</v>
+        <v>36.59703047193081</v>
       </c>
       <c r="H17">
-        <v>6.162834593363447</v>
+        <v>6.116609576619215</v>
       </c>
       <c r="I17">
-        <v>3.431251435815479</v>
+        <v>3.25217611061878</v>
       </c>
       <c r="J17">
-        <v>13.30447025094208</v>
+        <v>12.16258382216924</v>
       </c>
       <c r="K17">
-        <v>20.30558369724548</v>
+        <v>17.86651604101067</v>
       </c>
       <c r="L17">
-        <v>4.499617407082014</v>
+        <v>13.79907782173218</v>
       </c>
       <c r="M17">
-        <v>14.15576062810393</v>
+        <v>12.67560497758204</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.561022797606578</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.37374279371957</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.12793136145542</v>
+        <v>14.99805295257981</v>
       </c>
       <c r="C18">
-        <v>10.97792252792595</v>
+        <v>12.0234264160673</v>
       </c>
       <c r="D18">
-        <v>11.20664338228866</v>
+        <v>11.24350146224377</v>
       </c>
       <c r="E18">
-        <v>10.32758351012607</v>
+        <v>10.40628433637003</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44.78049698272349</v>
+        <v>39.01255448670256</v>
       </c>
       <c r="H18">
-        <v>4.998113295050318</v>
+        <v>4.941288175054657</v>
       </c>
       <c r="I18">
-        <v>3.434693151929837</v>
+        <v>3.253659570163859</v>
       </c>
       <c r="J18">
-        <v>13.93500113396155</v>
+        <v>12.75059789777058</v>
       </c>
       <c r="K18">
-        <v>21.44961410975998</v>
+        <v>18.75818928550543</v>
       </c>
       <c r="L18">
-        <v>4.825754852753559</v>
+        <v>14.48532761857594</v>
       </c>
       <c r="M18">
-        <v>14.05954654901883</v>
+        <v>13.33649375980984</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>4.884414024711222</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.29971350821385</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.00297733648061</v>
+        <v>14.84220526708153</v>
       </c>
       <c r="C19">
-        <v>11.36169575611132</v>
+        <v>12.56319125275704</v>
       </c>
       <c r="D19">
-        <v>12.18958461613508</v>
+        <v>12.22347964321798</v>
       </c>
       <c r="E19">
-        <v>12.12856566816059</v>
+        <v>12.19609376551166</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>48.79610161323388</v>
+        <v>42.23101625669743</v>
       </c>
       <c r="H19">
-        <v>3.650291149578157</v>
+        <v>3.580378101152394</v>
       </c>
       <c r="I19">
-        <v>3.398630956287668</v>
+        <v>3.226959517115428</v>
       </c>
       <c r="J19">
-        <v>14.76730782860324</v>
+        <v>13.43015646995632</v>
       </c>
       <c r="K19">
-        <v>22.95285033258768</v>
+        <v>19.86566413202249</v>
       </c>
       <c r="L19">
-        <v>5.420497256694945</v>
+        <v>15.3253596545572</v>
       </c>
       <c r="M19">
-        <v>14.1068841178218</v>
+        <v>14.17729323823925</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.471205990253416</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.37199231909831</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.20974562630666</v>
+        <v>14.99177591791281</v>
       </c>
       <c r="C20">
-        <v>12.22977237820001</v>
+        <v>13.66635186407833</v>
       </c>
       <c r="D20">
-        <v>13.90285422122791</v>
+        <v>13.92692720003419</v>
       </c>
       <c r="E20">
-        <v>15.15496211458755</v>
+        <v>15.19940126784854</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.6644805676452</v>
+        <v>47.77593641645669</v>
       </c>
       <c r="H20">
-        <v>2.258873057463138</v>
+        <v>2.188330287750769</v>
       </c>
       <c r="I20">
-        <v>3.219928066033932</v>
+        <v>3.082715027780577</v>
       </c>
       <c r="J20">
-        <v>16.18759104702298</v>
+        <v>14.36855042996596</v>
       </c>
       <c r="K20">
-        <v>25.5174376081917</v>
+        <v>21.6214669226668</v>
       </c>
       <c r="L20">
-        <v>6.607627654711537</v>
+        <v>16.59250206758758</v>
       </c>
       <c r="M20">
-        <v>14.53755839644804</v>
+        <v>15.58755321739442</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.640138245319668</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.8351460281803</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.13195902438792</v>
+        <v>15.90095139784562</v>
       </c>
       <c r="C21">
-        <v>13.06156092271076</v>
+        <v>14.41939061254383</v>
       </c>
       <c r="D21">
-        <v>14.72464133780241</v>
+        <v>14.73307031233055</v>
       </c>
       <c r="E21">
-        <v>16.19742089613239</v>
+        <v>16.21288362455255</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.48855818670854</v>
+        <v>50.67151007821352</v>
       </c>
       <c r="H21">
-        <v>1.851720665242431</v>
+        <v>1.82659412231612</v>
       </c>
       <c r="I21">
-        <v>2.939132588873429</v>
+        <v>2.859412982025579</v>
       </c>
       <c r="J21">
-        <v>16.70891830286807</v>
+        <v>13.5127323157706</v>
       </c>
       <c r="K21">
-        <v>26.41031841867031</v>
+        <v>21.61804950881512</v>
       </c>
       <c r="L21">
-        <v>6.989709870895686</v>
+        <v>16.40064878280744</v>
       </c>
       <c r="M21">
-        <v>15.42557228701989</v>
+        <v>15.81917700562601</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.001012516175378</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.69272325086034</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.71840000565446</v>
+        <v>16.48249933191477</v>
       </c>
       <c r="C22">
-        <v>13.53291426765356</v>
+        <v>14.82270535857448</v>
       </c>
       <c r="D22">
-        <v>15.17651228682161</v>
+        <v>15.17520938845868</v>
       </c>
       <c r="E22">
-        <v>16.72708748605379</v>
+        <v>16.72470054124312</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.13155979489071</v>
+        <v>52.47675552631205</v>
       </c>
       <c r="H22">
-        <v>1.607099853702221</v>
+        <v>1.61101089851692</v>
       </c>
       <c r="I22">
-        <v>2.751280231301132</v>
+        <v>2.705959175309476</v>
       </c>
       <c r="J22">
-        <v>17.01249366954701</v>
+        <v>12.88558290753537</v>
       </c>
       <c r="K22">
-        <v>26.93352177167967</v>
+        <v>21.55356331010844</v>
       </c>
       <c r="L22">
-        <v>7.177724541628681</v>
+        <v>16.23098151317646</v>
       </c>
       <c r="M22">
-        <v>15.97119434228227</v>
+        <v>15.92707723146534</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.17597892488321</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.21532907932058</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.41368400912317</v>
+        <v>16.17569723073492</v>
       </c>
       <c r="C23">
-        <v>13.25705090555229</v>
+        <v>14.60943759219843</v>
       </c>
       <c r="D23">
-        <v>14.93714291619504</v>
+        <v>14.94137314875483</v>
       </c>
       <c r="E23">
-        <v>16.44702936109503</v>
+        <v>16.45478566592612</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.38733505268996</v>
+        <v>51.52335018254435</v>
       </c>
       <c r="H23">
-        <v>1.735840173155284</v>
+        <v>1.723187729927953</v>
       </c>
       <c r="I23">
-        <v>2.838825108247054</v>
+        <v>2.771911474458915</v>
       </c>
       <c r="J23">
-        <v>16.87918666759145</v>
+        <v>13.3702690113885</v>
       </c>
       <c r="K23">
-        <v>26.71604514534854</v>
+        <v>21.69175855779343</v>
       </c>
       <c r="L23">
-        <v>7.07852472896682</v>
+        <v>16.39650118921816</v>
       </c>
       <c r="M23">
-        <v>15.67778727336124</v>
+        <v>15.95053229528043</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.084195514091491</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.93968034329553</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.19845321723445</v>
+        <v>14.97612397015564</v>
       </c>
       <c r="C24">
-        <v>12.21971620583884</v>
+        <v>13.67704206327567</v>
       </c>
       <c r="D24">
-        <v>14.00103961721799</v>
+        <v>14.02471888252633</v>
       </c>
       <c r="E24">
-        <v>15.34659503828196</v>
+        <v>15.39011920886081</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.28709683148837</v>
+        <v>48.28452619402318</v>
       </c>
       <c r="H24">
-        <v>2.234035725205743</v>
+        <v>2.164446481757721</v>
       </c>
       <c r="I24">
-        <v>3.197974327206143</v>
+        <v>3.058530979100033</v>
       </c>
       <c r="J24">
-        <v>16.32288541394532</v>
+        <v>14.48787715698492</v>
       </c>
       <c r="K24">
-        <v>25.77952527663896</v>
+        <v>21.82826712659564</v>
       </c>
       <c r="L24">
-        <v>6.690910550770504</v>
+        <v>16.7506169286021</v>
       </c>
       <c r="M24">
-        <v>14.52791141758072</v>
+        <v>15.74243951191141</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.722651799168525</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.82882603521346</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.77544995180698</v>
+        <v>13.61689004397112</v>
       </c>
       <c r="C25">
-        <v>11.02743235897432</v>
+        <v>12.33610917952803</v>
       </c>
       <c r="D25">
-        <v>12.9312651202496</v>
+        <v>12.97118927181553</v>
       </c>
       <c r="E25">
-        <v>14.07767072829679</v>
+        <v>14.15116222152746</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.79286212822535</v>
+        <v>45.84069590062981</v>
       </c>
       <c r="H25">
-        <v>2.790696740939711</v>
+        <v>2.676577957709917</v>
       </c>
       <c r="I25">
-        <v>3.601020170484597</v>
+        <v>3.399925468643185</v>
       </c>
       <c r="J25">
-        <v>15.71274547626621</v>
+        <v>14.18607031967108</v>
       </c>
       <c r="K25">
-        <v>24.74190621517852</v>
+        <v>21.36248556041183</v>
       </c>
       <c r="L25">
-        <v>6.249681524089599</v>
+        <v>16.67507222385345</v>
       </c>
       <c r="M25">
-        <v>13.18905348228898</v>
+        <v>15.07507974768426</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.302933776743613</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.47187715765734</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
